--- a/PerformanceGraphExport.xlsx
+++ b/PerformanceGraphExport.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27914"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/901e6d98a65eaf0e/Desktop/Pós -Graduação/Tech-Challenge-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\CP1PEPF00007387\EXCELCNV\ebf043c5-79b7-403a-9e5c-851733549023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{7C05068C-C7DD-4A95-AD8B-0C51CC35CC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B79AF035-3005-C645-B6E2-C87BC94D4D09}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{2790A472-7CA2-4181-B8EE-6BC7DFB55B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFF2E644-B746-4749-9D2F-A9E498A0E681}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{6E27BB79-480B-4FF2-B0FB-D5FE82758A39}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{29C92B24-FE78-4BFD-8D02-56C473F8261D}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance Graph" sheetId="4" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="5" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="__FDS_HYPERLINK_TOGGLE_STATE__" hidden="1">"ON"</definedName>
@@ -2359,6 +2358,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -2388,9 +2390,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2405,9 +2407,113 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="22"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="22"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2421,25 +2527,197 @@
       <sz val="10"/>
       <name val="Geogrotesque Rg"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Geogrotesque Rg"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2454,34 +2732,114 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="_x000a_bidires=100_x000d_" xfId="1" xr:uid="{FF5B1DCA-8617-45E7-BEF5-63AABA7883DB}"/>
+  <cellStyles count="45">
+    <cellStyle name="_x000a_bidires=100_x000d_" xfId="1" xr:uid="{01E6CFA3-50DB-4AAF-8730-F8A5A70115C9}"/>
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="3" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="5" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="7" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="8" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="9" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="10" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="11" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="12" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="13" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="14" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="15" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="16" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="17" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="18" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="19" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="22" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="23" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="24" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="25" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="26" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="27" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="28" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="29" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="30" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="31" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="32" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="34" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="35" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Style 1" xfId="2" xr:uid="{93D4D960-7532-4178-A1EA-40F0561AA570}"/>
-    <cellStyle name="Total" xfId="3" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Обычный_RTS_select_issues" xfId="4" xr:uid="{E5A478D5-71D2-4F42-A9C4-8749C6295BAF}"/>
+    <cellStyle name="Note" xfId="38" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="39" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Style 1" xfId="40" xr:uid="{C7BED258-90F7-404B-AB1B-943CFF8BAB90}"/>
+    <cellStyle name="Title" xfId="41" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Обычный_RTS_select_issues" xfId="44" xr:uid="{CB3CE6E1-B2F6-44D0-A0ED-19C815616732}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2525,13 +2883,7 @@
       <sheetName val="largecap"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="A3">
-            <v>32142</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2992,25 +3344,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4515C8-D0C0-43C8-8E47-82C76DF049AC}">
-  <dimension ref="A1:B792"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0B3DB1-0BD9-44A2-89A7-C329CAD016C8}">
+  <dimension ref="A1:B800"/>
   <sheetViews>
-    <sheetView topLeftCell="A770" workbookViewId="0">
-      <selection activeCell="B802" sqref="B802"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.23828125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.19140625" customWidth="1"/>
-    <col min="3" max="3" width="21.57421875" customWidth="1"/>
-    <col min="4" max="4" width="18.609375" customWidth="1"/>
-    <col min="5" max="5" width="19.55078125" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
-    <col min="7" max="7" width="18.7421875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>44322</v>
       </c>
@@ -3026,7 +3378,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>44323</v>
       </c>
@@ -3034,7 +3386,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>44326</v>
       </c>
@@ -3042,7 +3394,7 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>44327</v>
       </c>
@@ -3050,7 +3402,7 @@
         <v>24.97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>44328</v>
       </c>
@@ -3058,7 +3410,7 @@
         <v>26.94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>44329</v>
       </c>
@@ -3066,7 +3418,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>44330</v>
       </c>
@@ -3074,7 +3426,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>44333</v>
       </c>
@@ -3082,7 +3434,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>44334</v>
       </c>
@@ -3090,7 +3442,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="3">
         <v>44335</v>
       </c>
@@ -3098,7 +3450,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="3">
         <v>44336</v>
       </c>
@@ -3106,7 +3458,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="3">
         <v>44337</v>
       </c>
@@ -3114,7 +3466,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="3">
         <v>44340</v>
       </c>
@@ -3122,7 +3474,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="3">
         <v>44341</v>
       </c>
@@ -3130,7 +3482,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="3">
         <v>44342</v>
       </c>
@@ -3138,7 +3490,7 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="3">
         <v>44343</v>
       </c>
@@ -3146,7 +3498,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="3">
         <v>44344</v>
       </c>
@@ -3154,7 +3506,7 @@
         <v>20.82</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="3">
         <v>44347</v>
       </c>
@@ -3162,7 +3514,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="3">
         <v>44348</v>
       </c>
@@ -3170,7 +3522,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="3">
         <v>44349</v>
       </c>
@@ -3178,7 +3530,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="3">
         <v>44351</v>
       </c>
@@ -3186,7 +3538,7 @@
         <v>20.29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="3">
         <v>44354</v>
       </c>
@@ -3194,7 +3546,7 @@
         <v>20.47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="3">
         <v>44355</v>
       </c>
@@ -3202,7 +3554,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="3">
         <v>44356</v>
       </c>
@@ -3210,7 +3562,7 @@
         <v>20.04</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="3">
         <v>44357</v>
       </c>
@@ -3218,7 +3570,7 @@
         <v>20.05</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="3">
         <v>44358</v>
       </c>
@@ -3226,7 +3578,7 @@
         <v>20.41</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="3">
         <v>44361</v>
       </c>
@@ -3234,7 +3586,7 @@
         <v>20.65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="3">
         <v>44362</v>
       </c>
@@ -3242,7 +3594,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="3">
         <v>44363</v>
       </c>
@@ -3250,7 +3602,7 @@
         <v>21.57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="3">
         <v>44364</v>
       </c>
@@ -3258,7 +3610,7 @@
         <v>22.78</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="3">
         <v>44365</v>
       </c>
@@ -3266,7 +3618,7 @@
         <v>22.78</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="3">
         <v>44368</v>
       </c>
@@ -3274,7 +3626,7 @@
         <v>22.78</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="3">
         <v>44369</v>
       </c>
@@ -3282,7 +3634,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="3">
         <v>44370</v>
       </c>
@@ -3290,7 +3642,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="3">
         <v>44371</v>
       </c>
@@ -3298,7 +3650,7 @@
         <v>21.19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="3">
         <v>44372</v>
       </c>
@@ -3306,7 +3658,7 @@
         <v>22.07</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="3">
         <v>44375</v>
       </c>
@@ -3314,7 +3666,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="3">
         <v>44376</v>
       </c>
@@ -3322,7 +3674,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="3">
         <v>44377</v>
       </c>
@@ -3330,7 +3682,7 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="3">
         <v>44378</v>
       </c>
@@ -3338,7 +3690,7 @@
         <v>23.31</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="3">
         <v>44379</v>
       </c>
@@ -3346,7 +3698,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="3">
         <v>44382</v>
       </c>
@@ -3354,7 +3706,7 @@
         <v>21.28</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="3">
         <v>44383</v>
       </c>
@@ -3362,7 +3714,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="3">
         <v>44384</v>
       </c>
@@ -3370,7 +3722,7 @@
         <v>21.02</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="3">
         <v>44385</v>
       </c>
@@ -3378,7 +3730,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="3">
         <v>44389</v>
       </c>
@@ -3386,7 +3738,7 @@
         <v>21.78</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="3">
         <v>44390</v>
       </c>
@@ -3394,7 +3746,7 @@
         <v>23.26</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="3">
         <v>44391</v>
       </c>
@@ -3402,7 +3754,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="3">
         <v>44392</v>
       </c>
@@ -3410,7 +3762,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="3">
         <v>44393</v>
       </c>
@@ -3418,7 +3770,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="3">
         <v>44396</v>
       </c>
@@ -3426,7 +3778,7 @@
         <v>25.12</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" s="3">
         <v>44397</v>
       </c>
@@ -3434,7 +3786,7 @@
         <v>24.45</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" s="3">
         <v>44398</v>
       </c>
@@ -3442,7 +3794,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" s="3">
         <v>44399</v>
       </c>
@@ -3450,7 +3802,7 @@
         <v>22.23</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" s="3">
         <v>44400</v>
       </c>
@@ -3458,7 +3810,7 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" s="3">
         <v>44403</v>
       </c>
@@ -3466,7 +3818,7 @@
         <v>21.92</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" s="3">
         <v>44404</v>
       </c>
@@ -3474,7 +3826,7 @@
         <v>23.48</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" s="3">
         <v>44405</v>
       </c>
@@ -3482,7 +3834,7 @@
         <v>22.47</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" s="3">
         <v>44406</v>
       </c>
@@ -3490,7 +3842,7 @@
         <v>22.47</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" s="3">
         <v>44407</v>
       </c>
@@ -3498,7 +3850,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" s="3">
         <v>44410</v>
       </c>
@@ -3506,7 +3858,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" s="3">
         <v>44411</v>
       </c>
@@ -3514,7 +3866,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" s="3">
         <v>44412</v>
       </c>
@@ -3522,7 +3874,7 @@
         <v>24.26</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" s="3">
         <v>44413</v>
       </c>
@@ -3530,7 +3882,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" s="3">
         <v>44414</v>
       </c>
@@ -3538,7 +3890,7 @@
         <v>22.17</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" s="3">
         <v>44417</v>
       </c>
@@ -3546,7 +3898,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" s="3">
         <v>44418</v>
       </c>
@@ -3554,7 +3906,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" s="3">
         <v>44419</v>
       </c>
@@ -3562,7 +3914,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" s="3">
         <v>44420</v>
       </c>
@@ -3570,7 +3922,7 @@
         <v>22.14</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" s="3">
         <v>44421</v>
       </c>
@@ -3578,7 +3930,7 @@
         <v>23.06</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" s="3">
         <v>44424</v>
       </c>
@@ -3586,7 +3938,7 @@
         <v>23.06</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" s="3">
         <v>44425</v>
       </c>
@@ -3594,7 +3946,7 @@
         <v>26.59</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="3">
         <v>44426</v>
       </c>
@@ -3602,7 +3954,7 @@
         <v>26.19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" s="3">
         <v>44427</v>
       </c>
@@ -3610,7 +3962,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" s="3">
         <v>44428</v>
       </c>
@@ -3618,7 +3970,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" s="3">
         <v>44431</v>
       </c>
@@ -3626,7 +3978,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" s="3">
         <v>44432</v>
       </c>
@@ -3634,7 +3986,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" s="3">
         <v>44433</v>
       </c>
@@ -3642,7 +3994,7 @@
         <v>22.85</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" s="3">
         <v>44434</v>
       </c>
@@ -3650,7 +4002,7 @@
         <v>23.23</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" s="3">
         <v>44435</v>
       </c>
@@ -3658,7 +4010,7 @@
         <v>23.07</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" s="3">
         <v>44438</v>
       </c>
@@ -3666,7 +4018,7 @@
         <v>23.07</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" s="3">
         <v>44439</v>
       </c>
@@ -3674,7 +4026,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84" s="3">
         <v>44440</v>
       </c>
@@ -3682,7 +4034,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85" s="3">
         <v>44441</v>
       </c>
@@ -3690,7 +4042,7 @@
         <v>24.13</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86" s="3">
         <v>44442</v>
       </c>
@@ -3698,7 +4050,7 @@
         <v>25.03</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2">
       <c r="A87" s="3">
         <v>44445</v>
       </c>
@@ -3706,7 +4058,7 @@
         <v>25.65</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2">
       <c r="A88" s="3">
         <v>44447</v>
       </c>
@@ -3714,7 +4066,7 @@
         <v>28.45</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89" s="3">
         <v>44448</v>
       </c>
@@ -3722,7 +4074,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" s="3">
         <v>44449</v>
       </c>
@@ -3730,7 +4082,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" s="3">
         <v>44452</v>
       </c>
@@ -3738,7 +4090,7 @@
         <v>27.13</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92" s="3">
         <v>44453</v>
       </c>
@@ -3746,7 +4098,7 @@
         <v>26.53</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" s="3">
         <v>44454</v>
       </c>
@@ -3754,7 +4106,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" s="3">
         <v>44455</v>
       </c>
@@ -3762,7 +4114,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" s="3">
         <v>44456</v>
       </c>
@@ -3770,7 +4122,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96" s="3">
         <v>44459</v>
       </c>
@@ -3778,7 +4130,7 @@
         <v>32.39</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97" s="3">
         <v>44460</v>
       </c>
@@ -3786,7 +4138,7 @@
         <v>30.32</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98" s="3">
         <v>44461</v>
       </c>
@@ -3794,7 +4146,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2">
       <c r="A99" s="3">
         <v>44462</v>
       </c>
@@ -3802,7 +4154,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2">
       <c r="A100" s="3">
         <v>44463</v>
       </c>
@@ -3810,7 +4162,7 @@
         <v>25.33</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2">
       <c r="A101" s="3">
         <v>44466</v>
       </c>
@@ -3818,7 +4170,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102" s="3">
         <v>44467</v>
       </c>
@@ -3826,7 +4178,7 @@
         <v>27.71</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103" s="3">
         <v>44468</v>
       </c>
@@ -3834,7 +4186,7 @@
         <v>27.44</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104" s="3">
         <v>44469</v>
       </c>
@@ -3842,7 +4194,7 @@
         <v>26.69</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105" s="3">
         <v>44470</v>
       </c>
@@ -3850,7 +4202,7 @@
         <v>25.87</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106" s="3">
         <v>44473</v>
       </c>
@@ -3858,7 +4210,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
       <c r="A107" s="3">
         <v>44474</v>
       </c>
@@ -3866,7 +4218,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2">
       <c r="A108" s="3">
         <v>44475</v>
       </c>
@@ -3874,7 +4226,7 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2">
       <c r="A109" s="3">
         <v>44476</v>
       </c>
@@ -3882,7 +4234,7 @@
         <v>25.34</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2">
       <c r="A110" s="3">
         <v>44477</v>
       </c>
@@ -3890,7 +4242,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2">
       <c r="A111" s="3">
         <v>44480</v>
       </c>
@@ -3898,7 +4250,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2">
       <c r="A112" s="3">
         <v>44482</v>
       </c>
@@ -3906,7 +4258,7 @@
         <v>25.37</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2">
       <c r="A113" s="3">
         <v>44483</v>
       </c>
@@ -3914,7 +4266,7 @@
         <v>24.13</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2">
       <c r="A114" s="3">
         <v>44484</v>
       </c>
@@ -3922,7 +4274,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2">
       <c r="A115" s="3">
         <v>44487</v>
       </c>
@@ -3930,7 +4282,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2">
       <c r="A116" s="3">
         <v>44488</v>
       </c>
@@ -3938,7 +4290,7 @@
         <v>27.35</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2">
       <c r="A117" s="3">
         <v>44489</v>
       </c>
@@ -3946,7 +4298,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2">
       <c r="A118" s="3">
         <v>44490</v>
       </c>
@@ -3954,7 +4306,7 @@
         <v>29.51</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2">
       <c r="A119" s="3">
         <v>44491</v>
       </c>
@@ -3962,7 +4314,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2">
       <c r="A120" s="3">
         <v>44494</v>
       </c>
@@ -3970,7 +4322,7 @@
         <v>28.15</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2">
       <c r="A121" s="3">
         <v>44495</v>
       </c>
@@ -3978,7 +4330,7 @@
         <v>28.13</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2">
       <c r="A122" s="3">
         <v>44496</v>
       </c>
@@ -3986,7 +4338,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2">
       <c r="A123" s="3">
         <v>44497</v>
       </c>
@@ -3994,7 +4346,7 @@
         <v>25.98</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2">
       <c r="A124" s="3">
         <v>44498</v>
       </c>
@@ -4002,7 +4354,7 @@
         <v>26.58</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2">
       <c r="A125" s="3">
         <v>44501</v>
       </c>
@@ -4010,7 +4362,7 @@
         <v>30.79</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2">
       <c r="A126" s="3">
         <v>44503</v>
       </c>
@@ -4018,7 +4370,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2">
       <c r="A127" s="3">
         <v>44504</v>
       </c>
@@ -4026,7 +4378,7 @@
         <v>31.29</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2">
       <c r="A128" s="3">
         <v>44505</v>
       </c>
@@ -4034,7 +4386,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2">
       <c r="A129" s="3">
         <v>44508</v>
       </c>
@@ -4042,7 +4394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2">
       <c r="A130" s="3">
         <v>44509</v>
       </c>
@@ -4050,7 +4402,7 @@
         <v>35.39</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2">
       <c r="A131" s="3">
         <v>44510</v>
       </c>
@@ -4058,7 +4410,7 @@
         <v>33.94</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2">
       <c r="A132" s="3">
         <v>44511</v>
       </c>
@@ -4066,7 +4418,7 @@
         <v>32.42</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2">
       <c r="A133" s="3">
         <v>44512</v>
       </c>
@@ -4074,7 +4426,7 @@
         <v>32.590000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2">
       <c r="A134" s="3">
         <v>44516</v>
       </c>
@@ -4082,7 +4434,7 @@
         <v>32.39</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2">
       <c r="A135" s="3">
         <v>44517</v>
       </c>
@@ -4090,7 +4442,7 @@
         <v>32.72</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2">
       <c r="A136" s="3">
         <v>44518</v>
       </c>
@@ -4098,7 +4450,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2">
       <c r="A137" s="3">
         <v>44519</v>
       </c>
@@ -4106,7 +4458,7 @@
         <v>33.39</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2">
       <c r="A138" s="3">
         <v>44522</v>
       </c>
@@ -4114,7 +4466,7 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2">
       <c r="A139" s="3">
         <v>44523</v>
       </c>
@@ -4122,7 +4474,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2">
       <c r="A140" s="3">
         <v>44524</v>
       </c>
@@ -4130,7 +4482,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2">
       <c r="A141" s="3">
         <v>44525</v>
       </c>
@@ -4138,7 +4490,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2">
       <c r="A142" s="3">
         <v>44526</v>
       </c>
@@ -4146,7 +4498,7 @@
         <v>34.22</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2">
       <c r="A143" s="3">
         <v>44529</v>
       </c>
@@ -4154,7 +4506,7 @@
         <v>30.63</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2">
       <c r="A144" s="3">
         <v>44530</v>
       </c>
@@ -4162,7 +4514,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2">
       <c r="A145" s="3">
         <v>44531</v>
       </c>
@@ -4170,7 +4522,7 @@
         <v>30.46</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2">
       <c r="A146" s="3">
         <v>44532</v>
       </c>
@@ -4178,7 +4530,7 @@
         <v>31.48</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2">
       <c r="A147" s="3">
         <v>44533</v>
       </c>
@@ -4186,7 +4538,7 @@
         <v>30.44</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2">
       <c r="A148" s="3">
         <v>44536</v>
       </c>
@@ -4194,7 +4546,7 @@
         <v>30.11</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2">
       <c r="A149" s="3">
         <v>44537</v>
       </c>
@@ -4202,7 +4554,7 @@
         <v>28.09</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2">
       <c r="A150" s="3">
         <v>44538</v>
       </c>
@@ -4210,7 +4562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2">
       <c r="A151" s="3">
         <v>44539</v>
       </c>
@@ -4218,7 +4570,7 @@
         <v>25.93</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2">
       <c r="A152" s="3">
         <v>44540</v>
       </c>
@@ -4226,7 +4578,7 @@
         <v>25.34</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2">
       <c r="A153" s="3">
         <v>44543</v>
       </c>
@@ -4234,7 +4586,7 @@
         <v>25.85</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2">
       <c r="A154" s="3">
         <v>44544</v>
       </c>
@@ -4242,7 +4594,7 @@
         <v>27.36</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2">
       <c r="A155" s="3">
         <v>44545</v>
       </c>
@@ -4250,7 +4602,7 @@
         <v>27.27</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2">
       <c r="A156" s="3">
         <v>44546</v>
       </c>
@@ -4258,7 +4610,7 @@
         <v>26.14</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2">
       <c r="A157" s="3">
         <v>44547</v>
       </c>
@@ -4266,7 +4618,7 @@
         <v>27.24</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2">
       <c r="A158" s="3">
         <v>44550</v>
       </c>
@@ -4274,7 +4626,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2">
       <c r="A159" s="3">
         <v>44551</v>
       </c>
@@ -4282,7 +4634,7 @@
         <v>27.27</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2">
       <c r="A160" s="3">
         <v>44552</v>
       </c>
@@ -4290,7 +4642,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2">
       <c r="A161" s="3">
         <v>44553</v>
       </c>
@@ -4298,7 +4650,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2">
       <c r="A162" s="3">
         <v>44557</v>
       </c>
@@ -4306,7 +4658,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2">
       <c r="A163" s="3">
         <v>44558</v>
       </c>
@@ -4314,7 +4666,7 @@
         <v>25.24</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2">
       <c r="A164" s="3">
         <v>44559</v>
       </c>
@@ -4322,7 +4674,7 @@
         <v>24.74</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2">
       <c r="A165" s="3">
         <v>44560</v>
       </c>
@@ -4330,7 +4682,7 @@
         <v>24.84</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2">
       <c r="A166" s="3">
         <v>44564</v>
       </c>
@@ -4338,7 +4690,7 @@
         <v>26.24</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2">
       <c r="A167" s="3">
         <v>44565</v>
       </c>
@@ -4346,7 +4698,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2">
       <c r="A168" s="3">
         <v>44566</v>
       </c>
@@ -4354,7 +4706,7 @@
         <v>25.45</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2">
       <c r="A169" s="3">
         <v>44567</v>
       </c>
@@ -4362,7 +4714,7 @@
         <v>25.74</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2">
       <c r="A170" s="3">
         <v>44568</v>
       </c>
@@ -4370,7 +4722,7 @@
         <v>24.38</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2">
       <c r="A171" s="3">
         <v>44571</v>
       </c>
@@ -4378,7 +4730,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2">
       <c r="A172" s="3">
         <v>44572</v>
       </c>
@@ -4386,7 +4738,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2">
       <c r="A173" s="3">
         <v>44573</v>
       </c>
@@ -4394,7 +4746,7 @@
         <v>25.34</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2">
       <c r="A174" s="3">
         <v>44574</v>
       </c>
@@ -4402,7 +4754,7 @@
         <v>24.97</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2">
       <c r="A175" s="3">
         <v>44575</v>
       </c>
@@ -4410,7 +4762,7 @@
         <v>25.24</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2">
       <c r="A176" s="3">
         <v>44578</v>
       </c>
@@ -4418,7 +4770,7 @@
         <v>24.74</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2">
       <c r="A177" s="3">
         <v>44579</v>
       </c>
@@ -4426,7 +4778,7 @@
         <v>24.76</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2">
       <c r="A178" s="3">
         <v>44580</v>
       </c>
@@ -4434,7 +4786,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2">
       <c r="A179" s="3">
         <v>44581</v>
       </c>
@@ -4442,7 +4794,7 @@
         <v>24.44</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2">
       <c r="A180" s="3">
         <v>44582</v>
       </c>
@@ -4450,7 +4802,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2">
       <c r="A181" s="3">
         <v>44585</v>
       </c>
@@ -4458,7 +4810,7 @@
         <v>29.35</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2">
       <c r="A182" s="3">
         <v>44586</v>
       </c>
@@ -4466,7 +4818,7 @@
         <v>27.74</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2">
       <c r="A183" s="3">
         <v>44587</v>
       </c>
@@ -4474,7 +4826,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2">
       <c r="A184" s="3">
         <v>44588</v>
       </c>
@@ -4482,7 +4834,7 @@
         <v>25.01</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2">
       <c r="A185" s="3">
         <v>44589</v>
       </c>
@@ -4490,7 +4842,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2">
       <c r="A186" s="3">
         <v>44592</v>
       </c>
@@ -4498,7 +4850,7 @@
         <v>24.78</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2">
       <c r="A187" s="3">
         <v>44593</v>
       </c>
@@ -4506,7 +4858,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2">
       <c r="A188" s="3">
         <v>44594</v>
       </c>
@@ -4514,7 +4866,7 @@
         <v>24.24</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2">
       <c r="A189" s="3">
         <v>44595</v>
       </c>
@@ -4522,7 +4874,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2">
       <c r="A190" s="3">
         <v>44596</v>
       </c>
@@ -4530,7 +4882,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2">
       <c r="A191" s="3">
         <v>44599</v>
       </c>
@@ -4538,7 +4890,7 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2">
       <c r="A192" s="3">
         <v>44600</v>
       </c>
@@ -4546,7 +4898,7 @@
         <v>23.67</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2">
       <c r="A193" s="3">
         <v>44601</v>
       </c>
@@ -4554,7 +4906,7 @@
         <v>21.51</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2">
       <c r="A194" s="3">
         <v>44602</v>
       </c>
@@ -4562,7 +4914,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2">
       <c r="A195" s="3">
         <v>44603</v>
       </c>
@@ -4570,7 +4922,7 @@
         <v>23.33</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2">
       <c r="A196" s="3">
         <v>44606</v>
       </c>
@@ -4578,7 +4930,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2">
       <c r="A197" s="3">
         <v>44607</v>
       </c>
@@ -4586,7 +4938,7 @@
         <v>23.46</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2">
       <c r="A198" s="3">
         <v>44608</v>
       </c>
@@ -4594,7 +4946,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2">
       <c r="A199" s="3">
         <v>44609</v>
       </c>
@@ -4602,7 +4954,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2">
       <c r="A200" s="3">
         <v>44610</v>
       </c>
@@ -4610,7 +4962,7 @@
         <v>24.63</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2">
       <c r="A201" s="3">
         <v>44613</v>
       </c>
@@ -4618,7 +4970,7 @@
         <v>25.98</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2">
       <c r="A202" s="3">
         <v>44614</v>
       </c>
@@ -4626,7 +4978,7 @@
         <v>25.48</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2">
       <c r="A203" s="3">
         <v>44615</v>
       </c>
@@ -4634,7 +4986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2">
       <c r="A204" s="3">
         <v>44616</v>
       </c>
@@ -4642,7 +4994,7 @@
         <v>29.37</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2">
       <c r="A205" s="3">
         <v>44617</v>
       </c>
@@ -4650,7 +5002,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2">
       <c r="A206" s="3">
         <v>44622</v>
       </c>
@@ -4658,7 +5010,7 @@
         <v>26.38</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2">
       <c r="A207" s="3">
         <v>44623</v>
       </c>
@@ -4666,7 +5018,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2">
       <c r="A208" s="3">
         <v>44624</v>
       </c>
@@ -4674,7 +5026,7 @@
         <v>28.64</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2">
       <c r="A209" s="3">
         <v>44627</v>
       </c>
@@ -4682,7 +5034,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2">
       <c r="A210" s="3">
         <v>44628</v>
       </c>
@@ -4690,7 +5042,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2">
       <c r="A211" s="3">
         <v>44629</v>
       </c>
@@ -4698,7 +5050,7 @@
         <v>26.87</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2">
       <c r="A212" s="3">
         <v>44630</v>
       </c>
@@ -4706,7 +5058,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2">
       <c r="A213" s="3">
         <v>44631</v>
       </c>
@@ -4714,7 +5066,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2">
       <c r="A214" s="3">
         <v>44634</v>
       </c>
@@ -4722,7 +5074,7 @@
         <v>30.76</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2">
       <c r="A215" s="3">
         <v>44635</v>
       </c>
@@ -4730,7 +5082,7 @@
         <v>30.76</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2">
       <c r="A216" s="3">
         <v>44636</v>
       </c>
@@ -4738,7 +5090,7 @@
         <v>27.56</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2">
       <c r="A217" s="3">
         <v>44637</v>
       </c>
@@ -4746,7 +5098,7 @@
         <v>25.71</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2">
       <c r="A218" s="3">
         <v>44638</v>
       </c>
@@ -4754,7 +5106,7 @@
         <v>24.02</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2">
       <c r="A219" s="3">
         <v>44641</v>
       </c>
@@ -4762,7 +5114,7 @@
         <v>23.48</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2">
       <c r="A220" s="3">
         <v>44642</v>
       </c>
@@ -4770,7 +5122,7 @@
         <v>23.73</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2">
       <c r="A221" s="3">
         <v>44643</v>
       </c>
@@ -4778,7 +5130,7 @@
         <v>22.14</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2">
       <c r="A222" s="3">
         <v>44644</v>
       </c>
@@ -4786,7 +5138,7 @@
         <v>22.21</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2">
       <c r="A223" s="3">
         <v>44645</v>
       </c>
@@ -4794,7 +5146,7 @@
         <v>22.11</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2">
       <c r="A224" s="3">
         <v>44648</v>
       </c>
@@ -4802,7 +5154,7 @@
         <v>26.63</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2">
       <c r="A225" s="3">
         <v>44649</v>
       </c>
@@ -4810,7 +5162,7 @@
         <v>21.97</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2">
       <c r="A226" s="3">
         <v>44650</v>
       </c>
@@ -4818,7 +5170,7 @@
         <v>21.03</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2">
       <c r="A227" s="3">
         <v>44651</v>
       </c>
@@ -4826,7 +5178,7 @@
         <v>19.73</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2">
       <c r="A228" s="3">
         <v>44652</v>
       </c>
@@ -4834,7 +5186,7 @@
         <v>20.170000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2">
       <c r="A229" s="3">
         <v>44655</v>
       </c>
@@ -4842,7 +5194,7 @@
         <v>20.170000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2">
       <c r="A230" s="3">
         <v>44656</v>
       </c>
@@ -4850,7 +5202,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2">
       <c r="A231" s="3">
         <v>44657</v>
       </c>
@@ -4858,7 +5210,7 @@
         <v>22.51</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2">
       <c r="A232" s="3">
         <v>44658</v>
       </c>
@@ -4866,7 +5218,7 @@
         <v>21.62</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2">
       <c r="A233" s="3">
         <v>44659</v>
       </c>
@@ -4874,7 +5226,7 @@
         <v>21.82</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2">
       <c r="A234" s="3">
         <v>44662</v>
       </c>
@@ -4882,7 +5234,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2">
       <c r="A235" s="3">
         <v>44663</v>
       </c>
@@ -4890,7 +5242,7 @@
         <v>23.38</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2">
       <c r="A236" s="3">
         <v>44664</v>
       </c>
@@ -4898,7 +5250,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2">
       <c r="A237" s="3">
         <v>44665</v>
       </c>
@@ -4906,7 +5258,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2">
       <c r="A238" s="3">
         <v>44669</v>
       </c>
@@ -4914,7 +5266,7 @@
         <v>21.91</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2">
       <c r="A239" s="3">
         <v>44670</v>
       </c>
@@ -4922,7 +5274,7 @@
         <v>21.51</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2">
       <c r="A240" s="3">
         <v>44671</v>
       </c>
@@ -4930,7 +5282,7 @@
         <v>20.67</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2">
       <c r="A241" s="3">
         <v>44673</v>
       </c>
@@ -4938,7 +5290,7 @@
         <v>24.31</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2">
       <c r="A242" s="3">
         <v>44676</v>
       </c>
@@ -4946,7 +5298,7 @@
         <v>24.31</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2">
       <c r="A243" s="3">
         <v>44677</v>
       </c>
@@ -4954,7 +5306,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2">
       <c r="A244" s="3">
         <v>44678</v>
       </c>
@@ -4962,7 +5314,7 @@
         <v>26.18</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2">
       <c r="A245" s="3">
         <v>44679</v>
       </c>
@@ -4970,7 +5322,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2">
       <c r="A246" s="3">
         <v>44680</v>
       </c>
@@ -4978,7 +5330,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2">
       <c r="A247" s="3">
         <v>44683</v>
       </c>
@@ -4986,7 +5338,7 @@
         <v>30.32</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2">
       <c r="A248" s="3">
         <v>44684</v>
       </c>
@@ -4994,7 +5346,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2">
       <c r="A249" s="3">
         <v>44685</v>
       </c>
@@ -5002,7 +5354,7 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2">
       <c r="A250" s="3">
         <v>44686</v>
       </c>
@@ -5010,7 +5362,7 @@
         <v>28.69</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2">
       <c r="A251" s="3">
         <v>44687</v>
       </c>
@@ -5018,7 +5370,7 @@
         <v>28.69</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2">
       <c r="A252" s="3">
         <v>44690</v>
       </c>
@@ -5026,7 +5378,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2">
       <c r="A253" s="3">
         <v>44691</v>
       </c>
@@ -5034,7 +5386,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2">
       <c r="A254" s="3">
         <v>44692</v>
       </c>
@@ -5042,7 +5394,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2">
       <c r="A255" s="3">
         <v>44693</v>
       </c>
@@ -5050,7 +5402,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2">
       <c r="A256" s="3">
         <v>44694</v>
       </c>
@@ -5058,7 +5410,7 @@
         <v>26.78</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2">
       <c r="A257" s="3">
         <v>44697</v>
       </c>
@@ -5066,7 +5418,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2">
       <c r="A258" s="3">
         <v>44698</v>
       </c>
@@ -5074,7 +5426,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2">
       <c r="A259" s="3">
         <v>44699</v>
       </c>
@@ -5082,7 +5434,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2">
       <c r="A260" s="3">
         <v>44700</v>
       </c>
@@ -5090,7 +5442,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2">
       <c r="A261" s="3">
         <v>44701</v>
       </c>
@@ -5098,7 +5450,7 @@
         <v>25.18</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2">
       <c r="A262" s="3">
         <v>44704</v>
       </c>
@@ -5106,7 +5458,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2">
       <c r="A263" s="3">
         <v>44705</v>
       </c>
@@ -5114,7 +5466,7 @@
         <v>25.58</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2">
       <c r="A264" s="3">
         <v>44706</v>
       </c>
@@ -5122,7 +5474,7 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2">
       <c r="A265" s="3">
         <v>44707</v>
       </c>
@@ -5130,7 +5482,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2">
       <c r="A266" s="3">
         <v>44708</v>
       </c>
@@ -5138,7 +5490,7 @@
         <v>22.07</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2">
       <c r="A267" s="3">
         <v>44711</v>
       </c>
@@ -5146,7 +5498,7 @@
         <v>22.96</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2">
       <c r="A268" s="3">
         <v>44712</v>
       </c>
@@ -5154,7 +5506,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2">
       <c r="A269" s="3">
         <v>44713</v>
       </c>
@@ -5162,7 +5514,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2">
       <c r="A270" s="3">
         <v>44714</v>
       </c>
@@ -5170,7 +5522,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2">
       <c r="A271" s="3">
         <v>44715</v>
       </c>
@@ -5178,7 +5530,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2">
       <c r="A272" s="3">
         <v>44718</v>
       </c>
@@ -5186,7 +5538,7 @@
         <v>23.31</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2">
       <c r="A273" s="3">
         <v>44719</v>
       </c>
@@ -5194,7 +5546,7 @@
         <v>23.31</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2">
       <c r="A274" s="3">
         <v>44720</v>
       </c>
@@ -5202,7 +5554,7 @@
         <v>21.91</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2">
       <c r="A275" s="3">
         <v>44721</v>
       </c>
@@ -5210,7 +5562,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2">
       <c r="A276" s="3">
         <v>44722</v>
       </c>
@@ -5218,7 +5570,7 @@
         <v>23.79</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2">
       <c r="A277" s="3">
         <v>44725</v>
       </c>
@@ -5226,7 +5578,7 @@
         <v>27.83</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2">
       <c r="A278" s="3">
         <v>44726</v>
       </c>
@@ -5234,7 +5586,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2">
       <c r="A279" s="3">
         <v>44727</v>
       </c>
@@ -5242,7 +5594,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2">
       <c r="A280" s="3">
         <v>44729</v>
       </c>
@@ -5250,7 +5602,7 @@
         <v>27.74</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2">
       <c r="A281" s="3">
         <v>44732</v>
       </c>
@@ -5258,7 +5610,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2">
       <c r="A282" s="3">
         <v>44733</v>
       </c>
@@ -5266,7 +5618,7 @@
         <v>26.79</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2">
       <c r="A283" s="3">
         <v>44734</v>
       </c>
@@ -5274,7 +5626,7 @@
         <v>25.98</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2">
       <c r="A284" s="3">
         <v>44735</v>
       </c>
@@ -5282,7 +5634,7 @@
         <v>26.44</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2">
       <c r="A285" s="3">
         <v>44736</v>
       </c>
@@ -5290,7 +5642,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2">
       <c r="A286" s="3">
         <v>44739</v>
       </c>
@@ -5298,7 +5650,7 @@
         <v>25.69</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2">
       <c r="A287" s="3">
         <v>44740</v>
       </c>
@@ -5306,7 +5658,7 @@
         <v>25.69</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2">
       <c r="A288" s="3">
         <v>44741</v>
       </c>
@@ -5314,7 +5666,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2">
       <c r="A289" s="3">
         <v>44742</v>
       </c>
@@ -5322,7 +5674,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2">
       <c r="A290" s="3">
         <v>44743</v>
       </c>
@@ -5330,7 +5682,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2">
       <c r="A291" s="3">
         <v>44746</v>
       </c>
@@ -5338,7 +5690,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2">
       <c r="A292" s="3">
         <v>44747</v>
       </c>
@@ -5346,7 +5698,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2">
       <c r="A293" s="3">
         <v>44748</v>
       </c>
@@ -5354,7 +5706,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2">
       <c r="A294" s="3">
         <v>44749</v>
       </c>
@@ -5362,7 +5714,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2">
       <c r="A295" s="3">
         <v>44750</v>
       </c>
@@ -5370,7 +5722,7 @@
         <v>22.77</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2">
       <c r="A296" s="3">
         <v>44753</v>
       </c>
@@ -5378,7 +5730,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2">
       <c r="A297" s="3">
         <v>44754</v>
       </c>
@@ -5386,7 +5738,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2">
       <c r="A298" s="3">
         <v>44755</v>
       </c>
@@ -5394,7 +5746,7 @@
         <v>24.66</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2">
       <c r="A299" s="3">
         <v>44756</v>
       </c>
@@ -5402,7 +5754,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2">
       <c r="A300" s="3">
         <v>44757</v>
       </c>
@@ -5410,7 +5762,7 @@
         <v>23.04</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2">
       <c r="A301" s="3">
         <v>44760</v>
       </c>
@@ -5418,7 +5770,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2">
       <c r="A302" s="3">
         <v>44761</v>
       </c>
@@ -5426,7 +5778,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2">
       <c r="A303" s="3">
         <v>44762</v>
       </c>
@@ -5434,7 +5786,7 @@
         <v>22.67</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2">
       <c r="A304" s="3">
         <v>44763</v>
       </c>
@@ -5442,7 +5794,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2">
       <c r="A305" s="3">
         <v>44764</v>
       </c>
@@ -5450,7 +5802,7 @@
         <v>23.06</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2">
       <c r="A306" s="3">
         <v>44767</v>
       </c>
@@ -5458,7 +5810,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2">
       <c r="A307" s="3">
         <v>44768</v>
       </c>
@@ -5466,7 +5818,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2">
       <c r="A308" s="3">
         <v>44769</v>
       </c>
@@ -5474,7 +5826,7 @@
         <v>22.34</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2">
       <c r="A309" s="3">
         <v>44770</v>
       </c>
@@ -5482,7 +5834,7 @@
         <v>22.09</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2">
       <c r="A310" s="3">
         <v>44771</v>
       </c>
@@ -5490,7 +5842,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2">
       <c r="A311" s="3">
         <v>44774</v>
       </c>
@@ -5498,7 +5850,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2">
       <c r="A312" s="3">
         <v>44775</v>
       </c>
@@ -5506,7 +5858,7 @@
         <v>23.03</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2">
       <c r="A313" s="3">
         <v>44776</v>
       </c>
@@ -5514,7 +5866,7 @@
         <v>22.49</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2">
       <c r="A314" s="3">
         <v>44777</v>
       </c>
@@ -5522,7 +5874,7 @@
         <v>21.97</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2">
       <c r="A315" s="3">
         <v>44778</v>
       </c>
@@ -5530,7 +5882,7 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2">
       <c r="A316" s="3">
         <v>44781</v>
       </c>
@@ -5538,7 +5890,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2">
       <c r="A317" s="3">
         <v>44782</v>
       </c>
@@ -5546,7 +5898,7 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2">
       <c r="A318" s="3">
         <v>44783</v>
       </c>
@@ -5554,7 +5906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2">
       <c r="A319" s="3">
         <v>44784</v>
       </c>
@@ -5562,7 +5914,7 @@
         <v>22.05</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2">
       <c r="A320" s="3">
         <v>44785</v>
       </c>
@@ -5570,7 +5922,7 @@
         <v>22.36</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2">
       <c r="A321" s="3">
         <v>44788</v>
       </c>
@@ -5578,7 +5930,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2">
       <c r="A322" s="3">
         <v>44789</v>
       </c>
@@ -5586,7 +5938,7 @@
         <v>24.53</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2">
       <c r="A323" s="3">
         <v>44790</v>
       </c>
@@ -5594,7 +5946,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2">
       <c r="A324" s="3">
         <v>44791</v>
       </c>
@@ -5602,7 +5954,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2">
       <c r="A325" s="3">
         <v>44792</v>
       </c>
@@ -5610,7 +5962,7 @@
         <v>25.69</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2">
       <c r="A326" s="3">
         <v>44795</v>
       </c>
@@ -5618,7 +5970,7 @@
         <v>26.77</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2">
       <c r="A327" s="3">
         <v>44796</v>
       </c>
@@ -5626,7 +5978,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2">
       <c r="A328" s="3">
         <v>44797</v>
       </c>
@@ -5634,7 +5986,7 @@
         <v>26.81</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2">
       <c r="A329" s="3">
         <v>44798</v>
       </c>
@@ -5642,7 +5994,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2">
       <c r="A330" s="3">
         <v>44799</v>
       </c>
@@ -5650,7 +6002,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2">
       <c r="A331" s="3">
         <v>44802</v>
       </c>
@@ -5658,7 +6010,7 @@
         <v>27.67</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2">
       <c r="A332" s="3">
         <v>44803</v>
       </c>
@@ -5666,7 +6018,7 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2">
       <c r="A333" s="3">
         <v>44804</v>
       </c>
@@ -5674,7 +6026,7 @@
         <v>28.67</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2">
       <c r="A334" s="3">
         <v>44805</v>
       </c>
@@ -5682,7 +6034,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2">
       <c r="A335" s="3">
         <v>44806</v>
       </c>
@@ -5690,7 +6042,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2">
       <c r="A336" s="3">
         <v>44809</v>
       </c>
@@ -5698,7 +6050,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2">
       <c r="A337" s="3">
         <v>44810</v>
       </c>
@@ -5706,7 +6058,7 @@
         <v>29.71</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2">
       <c r="A338" s="3">
         <v>44812</v>
       </c>
@@ -5714,7 +6066,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2">
       <c r="A339" s="3">
         <v>44813</v>
       </c>
@@ -5722,7 +6074,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2">
       <c r="A340" s="3">
         <v>44816</v>
       </c>
@@ -5730,7 +6082,7 @@
         <v>30.49</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2">
       <c r="A341" s="3">
         <v>44817</v>
       </c>
@@ -5738,7 +6090,7 @@
         <v>31.39</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2">
       <c r="A342" s="3">
         <v>44818</v>
       </c>
@@ -5746,7 +6098,7 @@
         <v>30.85</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2">
       <c r="A343" s="3">
         <v>44819</v>
       </c>
@@ -5754,7 +6106,7 @@
         <v>29.92</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2">
       <c r="A344" s="3">
         <v>44820</v>
       </c>
@@ -5762,7 +6114,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2">
       <c r="A345" s="3">
         <v>44823</v>
       </c>
@@ -5770,7 +6122,7 @@
         <v>30.06</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2">
       <c r="A346" s="3">
         <v>44824</v>
       </c>
@@ -5778,7 +6130,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2">
       <c r="A347" s="3">
         <v>44825</v>
       </c>
@@ -5786,7 +6138,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2">
       <c r="A348" s="3">
         <v>44826</v>
       </c>
@@ -5794,7 +6146,7 @@
         <v>28.68</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2">
       <c r="A349" s="3">
         <v>44827</v>
       </c>
@@ -5802,7 +6154,7 @@
         <v>30.21</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2">
       <c r="A350" s="3">
         <v>44830</v>
       </c>
@@ -5810,7 +6162,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2">
       <c r="A351" s="3">
         <v>44831</v>
       </c>
@@ -5818,7 +6170,7 @@
         <v>33.369999999999997</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2">
       <c r="A352" s="3">
         <v>44832</v>
       </c>
@@ -5826,7 +6178,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2">
       <c r="A353" s="3">
         <v>44833</v>
       </c>
@@ -5834,7 +6186,7 @@
         <v>34.67</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2">
       <c r="A354" s="3">
         <v>44834</v>
       </c>
@@ -5842,7 +6194,7 @@
         <v>34.340000000000003</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2">
       <c r="A355" s="3">
         <v>44837</v>
       </c>
@@ -5850,7 +6202,7 @@
         <v>30.99</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2">
       <c r="A356" s="3">
         <v>44838</v>
       </c>
@@ -5858,7 +6210,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2">
       <c r="A357" s="3">
         <v>44839</v>
       </c>
@@ -5866,7 +6218,7 @@
         <v>29.04</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2">
       <c r="A358" s="3">
         <v>44840</v>
       </c>
@@ -5874,7 +6226,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2">
       <c r="A359" s="3">
         <v>44841</v>
       </c>
@@ -5882,7 +6234,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2">
       <c r="A360" s="3">
         <v>44844</v>
       </c>
@@ -5890,7 +6242,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2">
       <c r="A361" s="3">
         <v>44845</v>
       </c>
@@ -5898,7 +6250,7 @@
         <v>31.96</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2">
       <c r="A362" s="3">
         <v>44847</v>
       </c>
@@ -5906,7 +6258,7 @@
         <v>30.93</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2">
       <c r="A363" s="3">
         <v>44848</v>
       </c>
@@ -5914,7 +6266,7 @@
         <v>30.13</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2">
       <c r="A364" s="3">
         <v>44851</v>
       </c>
@@ -5922,7 +6274,7 @@
         <v>30.46</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2">
       <c r="A365" s="3">
         <v>44852</v>
       </c>
@@ -5930,7 +6282,7 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2">
       <c r="A366" s="3">
         <v>44853</v>
       </c>
@@ -5938,7 +6290,7 @@
         <v>30.92</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2">
       <c r="A367" s="3">
         <v>44854</v>
       </c>
@@ -5946,7 +6298,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2">
       <c r="A368" s="3">
         <v>44855</v>
       </c>
@@ -5954,7 +6306,7 @@
         <v>32.11</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2">
       <c r="A369" s="3">
         <v>44858</v>
       </c>
@@ -5962,7 +6314,7 @@
         <v>32.11</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2">
       <c r="A370" s="3">
         <v>44859</v>
       </c>
@@ -5970,7 +6322,7 @@
         <v>32.11</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2">
       <c r="A371" s="3">
         <v>44860</v>
       </c>
@@ -5978,7 +6330,7 @@
         <v>32.11</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2">
       <c r="A372" s="3">
         <v>44861</v>
       </c>
@@ -5986,7 +6338,7 @@
         <v>32.99</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2">
       <c r="A373" s="3">
         <v>44862</v>
       </c>
@@ -5994,7 +6346,7 @@
         <v>32.950000000000003</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2">
       <c r="A374" s="3">
         <v>44865</v>
       </c>
@@ -6002,7 +6354,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2">
       <c r="A375" s="3">
         <v>44866</v>
       </c>
@@ -6010,7 +6362,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2">
       <c r="A376" s="3">
         <v>44868</v>
       </c>
@@ -6018,7 +6370,7 @@
         <v>26.68</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2">
       <c r="A377" s="3">
         <v>44869</v>
       </c>
@@ -6026,7 +6378,7 @@
         <v>24.69</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2">
       <c r="A378" s="3">
         <v>44872</v>
       </c>
@@ -6034,7 +6386,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2">
       <c r="A379" s="3">
         <v>44873</v>
       </c>
@@ -6042,7 +6394,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2">
       <c r="A380" s="3">
         <v>44874</v>
       </c>
@@ -6050,7 +6402,7 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2">
       <c r="A381" s="3">
         <v>44875</v>
       </c>
@@ -6058,7 +6410,7 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2">
       <c r="A382" s="3">
         <v>44876</v>
       </c>
@@ -6066,7 +6418,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2">
       <c r="A383" s="3">
         <v>44879</v>
       </c>
@@ -6074,7 +6426,7 @@
         <v>29.15</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2">
       <c r="A384" s="3">
         <v>44881</v>
       </c>
@@ -6082,7 +6434,7 @@
         <v>30.31</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2">
       <c r="A385" s="3">
         <v>44882</v>
       </c>
@@ -6090,7 +6442,7 @@
         <v>30.31</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2">
       <c r="A386" s="3">
         <v>44883</v>
       </c>
@@ -6098,7 +6450,7 @@
         <v>29.74</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2">
       <c r="A387" s="3">
         <v>44886</v>
       </c>
@@ -6106,7 +6458,7 @@
         <v>28.93</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2">
       <c r="A388" s="3">
         <v>44887</v>
       </c>
@@ -6114,7 +6466,7 @@
         <v>28.05</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2">
       <c r="A389" s="3">
         <v>44888</v>
       </c>
@@ -6122,7 +6474,7 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2">
       <c r="A390" s="3">
         <v>44889</v>
       </c>
@@ -6130,7 +6482,7 @@
         <v>27.01</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2">
       <c r="A391" s="3">
         <v>44890</v>
       </c>
@@ -6138,7 +6490,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2">
       <c r="A392" s="3">
         <v>44893</v>
       </c>
@@ -6146,7 +6498,7 @@
         <v>27.03</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2">
       <c r="A393" s="3">
         <v>44894</v>
       </c>
@@ -6154,7 +6506,7 @@
         <v>26.84</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2">
       <c r="A394" s="3">
         <v>44895</v>
       </c>
@@ -6162,7 +6514,7 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2">
       <c r="A395" s="3">
         <v>44896</v>
       </c>
@@ -6170,7 +6522,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2">
       <c r="A396" s="3">
         <v>44897</v>
       </c>
@@ -6178,7 +6530,7 @@
         <v>25.71</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2">
       <c r="A397" s="3">
         <v>44900</v>
       </c>
@@ -6186,7 +6538,7 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2">
       <c r="A398" s="3">
         <v>44901</v>
       </c>
@@ -6194,7 +6546,7 @@
         <v>26.46</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2">
       <c r="A399" s="3">
         <v>44902</v>
       </c>
@@ -6202,7 +6554,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2">
       <c r="A400" s="3">
         <v>44903</v>
       </c>
@@ -6210,7 +6562,7 @@
         <v>26.38</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2">
       <c r="A401" s="3">
         <v>44904</v>
       </c>
@@ -6218,7 +6570,7 @@
         <v>24.23</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2">
       <c r="A402" s="3">
         <v>44907</v>
       </c>
@@ -6226,7 +6578,7 @@
         <v>27.15</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2">
       <c r="A403" s="3">
         <v>44908</v>
       </c>
@@ -6234,7 +6586,7 @@
         <v>27.47</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2">
       <c r="A404" s="3">
         <v>44909</v>
       </c>
@@ -6242,7 +6594,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2">
       <c r="A405" s="3">
         <v>44910</v>
       </c>
@@ -6250,7 +6602,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2">
       <c r="A406" s="3">
         <v>44911</v>
       </c>
@@ -6258,7 +6610,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2">
       <c r="A407" s="3">
         <v>44914</v>
       </c>
@@ -6266,7 +6618,7 @@
         <v>26.59</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2">
       <c r="A408" s="3">
         <v>44915</v>
       </c>
@@ -6274,7 +6626,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2">
       <c r="A409" s="3">
         <v>44916</v>
       </c>
@@ -6282,7 +6634,7 @@
         <v>23.48</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2">
       <c r="A410" s="3">
         <v>44917</v>
       </c>
@@ -6290,7 +6642,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2">
       <c r="A411" s="3">
         <v>44918</v>
       </c>
@@ -6298,7 +6650,7 @@
         <v>23.84</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2">
       <c r="A412" s="3">
         <v>44921</v>
       </c>
@@ -6306,7 +6658,7 @@
         <v>24.51</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2">
       <c r="A413" s="3">
         <v>44922</v>
       </c>
@@ -6314,7 +6666,7 @@
         <v>24.92</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2">
       <c r="A414" s="3">
         <v>44923</v>
       </c>
@@ -6322,7 +6674,7 @@
         <v>25.18</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2">
       <c r="A415" s="3">
         <v>44924</v>
       </c>
@@ -6330,7 +6682,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2">
       <c r="A416" s="3">
         <v>44928</v>
       </c>
@@ -6338,7 +6690,7 @@
         <v>27.92</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:2">
       <c r="A417" s="3">
         <v>44929</v>
       </c>
@@ -6346,7 +6698,7 @@
         <v>27.86</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:2">
       <c r="A418" s="3">
         <v>44930</v>
       </c>
@@ -6354,7 +6706,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:2">
       <c r="A419" s="3">
         <v>44931</v>
       </c>
@@ -6362,7 +6714,7 @@
         <v>26.16</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:2">
       <c r="A420" s="3">
         <v>44932</v>
       </c>
@@ -6370,7 +6722,7 @@
         <v>26.16</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:2">
       <c r="A421" s="3">
         <v>44935</v>
       </c>
@@ -6378,7 +6730,7 @@
         <v>25.98</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:2">
       <c r="A422" s="3">
         <v>44936</v>
       </c>
@@ -6386,7 +6738,7 @@
         <v>24.92</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:2">
       <c r="A423" s="3">
         <v>44937</v>
       </c>
@@ -6394,7 +6746,7 @@
         <v>23.98</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:2">
       <c r="A424" s="3">
         <v>44938</v>
       </c>
@@ -6402,7 +6754,7 @@
         <v>24.37</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:2">
       <c r="A425" s="3">
         <v>44939</v>
       </c>
@@ -6410,7 +6762,7 @@
         <v>23.63</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:2">
       <c r="A426" s="3">
         <v>44942</v>
       </c>
@@ -6418,7 +6770,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:2">
       <c r="A427" s="3">
         <v>44943</v>
       </c>
@@ -6426,7 +6778,7 @@
         <v>24.43</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:2">
       <c r="A428" s="3">
         <v>44944</v>
       </c>
@@ -6434,7 +6786,7 @@
         <v>23.11</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:2">
       <c r="A429" s="3">
         <v>44945</v>
       </c>
@@ -6442,7 +6794,7 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:2">
       <c r="A430" s="3">
         <v>44946</v>
       </c>
@@ -6450,7 +6802,7 @@
         <v>22.43</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:2">
       <c r="A431" s="3">
         <v>44949</v>
       </c>
@@ -6458,7 +6810,7 @@
         <v>22.56</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:2">
       <c r="A432" s="3">
         <v>44950</v>
       </c>
@@ -6466,7 +6818,7 @@
         <v>21.97</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:2">
       <c r="A433" s="3">
         <v>44951</v>
       </c>
@@ -6474,7 +6826,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:2">
       <c r="A434" s="3">
         <v>44952</v>
       </c>
@@ -6482,7 +6834,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:2">
       <c r="A435" s="3">
         <v>44953</v>
       </c>
@@ -6490,7 +6842,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:2">
       <c r="A436" s="3">
         <v>44956</v>
       </c>
@@ -6498,7 +6850,7 @@
         <v>23.16</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:2">
       <c r="A437" s="3">
         <v>44957</v>
       </c>
@@ -6506,7 +6858,7 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:2">
       <c r="A438" s="3">
         <v>44958</v>
       </c>
@@ -6514,7 +6866,7 @@
         <v>23.38</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:2">
       <c r="A439" s="3">
         <v>44959</v>
       </c>
@@ -6522,7 +6874,7 @@
         <v>23.08</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:2">
       <c r="A440" s="3">
         <v>44960</v>
       </c>
@@ -6530,7 +6882,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:2">
       <c r="A441" s="3">
         <v>44963</v>
       </c>
@@ -6538,7 +6890,7 @@
         <v>23.88</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:2">
       <c r="A442" s="3">
         <v>44964</v>
       </c>
@@ -6546,7 +6898,7 @@
         <v>24.05</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:2">
       <c r="A443" s="3">
         <v>44965</v>
       </c>
@@ -6554,7 +6906,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:2">
       <c r="A444" s="3">
         <v>44966</v>
       </c>
@@ -6562,7 +6914,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:2">
       <c r="A445" s="3">
         <v>44967</v>
       </c>
@@ -6570,7 +6922,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:2">
       <c r="A446" s="3">
         <v>44970</v>
       </c>
@@ -6578,7 +6930,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:2">
       <c r="A447" s="3">
         <v>44971</v>
       </c>
@@ -6586,7 +6938,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:2">
       <c r="A448" s="3">
         <v>44972</v>
       </c>
@@ -6594,7 +6946,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:2">
       <c r="A449" s="3">
         <v>44973</v>
       </c>
@@ -6602,7 +6954,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:2">
       <c r="A450" s="3">
         <v>44974</v>
       </c>
@@ -6610,7 +6962,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:2">
       <c r="A451" s="3">
         <v>44979</v>
       </c>
@@ -6618,7 +6970,7 @@
         <v>22.77</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:2">
       <c r="A452" s="3">
         <v>44980</v>
       </c>
@@ -6626,7 +6978,7 @@
         <v>21.96</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:2">
       <c r="A453" s="3">
         <v>44981</v>
       </c>
@@ -6634,7 +6986,7 @@
         <v>22.23</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:2">
       <c r="A454" s="3">
         <v>44984</v>
       </c>
@@ -6642,7 +6994,7 @@
         <v>22.38</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:2">
       <c r="A455" s="3">
         <v>44985</v>
       </c>
@@ -6650,7 +7002,7 @@
         <v>22.59</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:2">
       <c r="A456" s="3">
         <v>44986</v>
       </c>
@@ -6658,7 +7010,7 @@
         <v>22.94</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:2">
       <c r="A457" s="3">
         <v>44987</v>
       </c>
@@ -6666,7 +7018,7 @@
         <v>22.37</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:2">
       <c r="A458" s="3">
         <v>44988</v>
       </c>
@@ -6674,7 +7026,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:2">
       <c r="A459" s="3">
         <v>44991</v>
       </c>
@@ -6682,7 +7034,7 @@
         <v>22.59</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:2">
       <c r="A460" s="3">
         <v>44992</v>
       </c>
@@ -6690,7 +7042,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:2">
       <c r="A461" s="3">
         <v>44993</v>
       </c>
@@ -6698,7 +7050,7 @@
         <v>22.29</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:2">
       <c r="A462" s="3">
         <v>44994</v>
       </c>
@@ -6706,7 +7058,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:2">
       <c r="A463" s="3">
         <v>44995</v>
       </c>
@@ -6714,7 +7066,7 @@
         <v>23.96</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:2">
       <c r="A464" s="3">
         <v>44998</v>
       </c>
@@ -6722,7 +7074,7 @@
         <v>25.95</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:2">
       <c r="A465" s="3">
         <v>44999</v>
       </c>
@@ -6730,7 +7082,7 @@
         <v>24.38</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:2">
       <c r="A466" s="3">
         <v>45000</v>
       </c>
@@ -6738,7 +7090,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:2">
       <c r="A467" s="3">
         <v>45001</v>
       </c>
@@ -6746,7 +7098,7 @@
         <v>24.43</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:2">
       <c r="A468" s="3">
         <v>45002</v>
       </c>
@@ -6754,7 +7106,7 @@
         <v>25.24</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:2">
       <c r="A469" s="3">
         <v>45005</v>
       </c>
@@ -6762,7 +7114,7 @@
         <v>26.12</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:2">
       <c r="A470" s="3">
         <v>45006</v>
       </c>
@@ -6770,7 +7122,7 @@
         <v>25.11</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:2">
       <c r="A471" s="3">
         <v>45007</v>
       </c>
@@ -6778,7 +7130,7 @@
         <v>24.29</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:2">
       <c r="A472" s="3">
         <v>45008</v>
       </c>
@@ -6786,7 +7138,7 @@
         <v>25.01</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:2">
       <c r="A473" s="3">
         <v>45009</v>
       </c>
@@ -6794,7 +7146,7 @@
         <v>26.59</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:2">
       <c r="A474" s="3">
         <v>45012</v>
       </c>
@@ -6802,7 +7154,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:2">
       <c r="A475" s="3">
         <v>45013</v>
       </c>
@@ -6810,7 +7162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:2">
       <c r="A476" s="3">
         <v>45014</v>
       </c>
@@ -6818,7 +7170,7 @@
         <v>25.11</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:2">
       <c r="A477" s="3">
         <v>45015</v>
       </c>
@@ -6826,7 +7178,7 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:2">
       <c r="A478" s="3">
         <v>45016</v>
       </c>
@@ -6834,7 +7186,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:2">
       <c r="A479" s="3">
         <v>45019</v>
       </c>
@@ -6842,7 +7194,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:2">
       <c r="A480" s="3">
         <v>45020</v>
       </c>
@@ -6850,7 +7202,7 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:2">
       <c r="A481" s="3">
         <v>45021</v>
       </c>
@@ -6858,7 +7210,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:2">
       <c r="A482" s="3">
         <v>45022</v>
       </c>
@@ -6866,7 +7218,7 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:2">
       <c r="A483" s="3">
         <v>45026</v>
       </c>
@@ -6874,7 +7226,7 @@
         <v>23.77</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:2">
       <c r="A484" s="3">
         <v>45027</v>
       </c>
@@ -6882,7 +7234,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:2">
       <c r="A485" s="3">
         <v>45028</v>
       </c>
@@ -6890,7 +7242,7 @@
         <v>22.15</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:2">
       <c r="A486" s="3">
         <v>45029</v>
       </c>
@@ -6898,7 +7250,7 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:2">
       <c r="A487" s="3">
         <v>45030</v>
       </c>
@@ -6906,7 +7258,7 @@
         <v>21.02</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:2">
       <c r="A488" s="3">
         <v>45033</v>
       </c>
@@ -6914,7 +7266,7 @@
         <v>20.96</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:2">
       <c r="A489" s="3">
         <v>45034</v>
       </c>
@@ -6922,7 +7274,7 @@
         <v>20.47</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:2">
       <c r="A490" s="3">
         <v>45035</v>
       </c>
@@ -6930,7 +7282,7 @@
         <v>20.74</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:2">
       <c r="A491" s="3">
         <v>45036</v>
       </c>
@@ -6938,7 +7290,7 @@
         <v>21.11</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:2">
       <c r="A492" s="3">
         <v>45040</v>
       </c>
@@ -6946,7 +7298,7 @@
         <v>21.27</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:2">
       <c r="A493" s="3">
         <v>45041</v>
       </c>
@@ -6954,7 +7306,7 @@
         <v>21.78</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:2">
       <c r="A494" s="3">
         <v>45042</v>
       </c>
@@ -6962,7 +7314,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:2">
       <c r="A495" s="3">
         <v>45043</v>
       </c>
@@ -6970,7 +7322,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:2">
       <c r="A496" s="3">
         <v>45044</v>
       </c>
@@ -6978,7 +7330,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:2">
       <c r="A497" s="3">
         <v>45048</v>
       </c>
@@ -6986,7 +7338,7 @@
         <v>22.53</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:2">
       <c r="A498" s="3">
         <v>45049</v>
       </c>
@@ -6994,7 +7346,7 @@
         <v>21.82</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:2">
       <c r="A499" s="3">
         <v>45050</v>
       </c>
@@ -7002,7 +7354,7 @@
         <v>22.29</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:2">
       <c r="A500" s="3">
         <v>45051</v>
       </c>
@@ -7010,7 +7362,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:2">
       <c r="A501" s="3">
         <v>45054</v>
       </c>
@@ -7018,7 +7370,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:2">
       <c r="A502" s="3">
         <v>45055</v>
       </c>
@@ -7026,7 +7378,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:2">
       <c r="A503" s="3">
         <v>45056</v>
       </c>
@@ -7034,7 +7386,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:2">
       <c r="A504" s="3">
         <v>45057</v>
       </c>
@@ -7042,7 +7394,7 @@
         <v>21.26</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:2">
       <c r="A505" s="3">
         <v>45058</v>
       </c>
@@ -7050,7 +7402,7 @@
         <v>20.61</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:2">
       <c r="A506" s="3">
         <v>45061</v>
       </c>
@@ -7058,7 +7410,7 @@
         <v>21.49</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:2">
       <c r="A507" s="3">
         <v>45062</v>
       </c>
@@ -7066,7 +7418,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:2">
       <c r="A508" s="3">
         <v>45063</v>
       </c>
@@ -7074,7 +7426,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:2">
       <c r="A509" s="3">
         <v>45064</v>
       </c>
@@ -7082,7 +7434,7 @@
         <v>21.57</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:2">
       <c r="A510" s="3">
         <v>45065</v>
       </c>
@@ -7090,7 +7442,7 @@
         <v>20.89</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:2">
       <c r="A511" s="3">
         <v>45068</v>
       </c>
@@ -7098,7 +7450,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:2">
       <c r="A512" s="3">
         <v>45069</v>
       </c>
@@ -7106,7 +7458,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="513" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:2">
       <c r="A513" s="3">
         <v>45070</v>
       </c>
@@ -7114,7 +7466,7 @@
         <v>21.49</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:2">
       <c r="A514" s="3">
         <v>45071</v>
       </c>
@@ -7122,7 +7474,7 @@
         <v>20.86</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:2">
       <c r="A515" s="3">
         <v>45072</v>
       </c>
@@ -7130,7 +7482,7 @@
         <v>20.74</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:2">
       <c r="A516" s="3">
         <v>45075</v>
       </c>
@@ -7138,7 +7490,7 @@
         <v>21.13</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:2">
       <c r="A517" s="3">
         <v>45076</v>
       </c>
@@ -7146,7 +7498,7 @@
         <v>21.69</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:2">
       <c r="A518" s="3">
         <v>45077</v>
       </c>
@@ -7154,7 +7506,7 @@
         <v>22.47</v>
       </c>
     </row>
-    <row r="519" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:2">
       <c r="A519" s="3">
         <v>45078</v>
       </c>
@@ -7162,7 +7514,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:2">
       <c r="A520" s="3">
         <v>45079</v>
       </c>
@@ -7170,7 +7522,7 @@
         <v>19.87</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:2">
       <c r="A521" s="3">
         <v>45082</v>
       </c>
@@ -7178,7 +7530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:2">
       <c r="A522" s="3">
         <v>45083</v>
       </c>
@@ -7186,7 +7538,7 @@
         <v>19.61</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:2">
       <c r="A523" s="3">
         <v>45084</v>
       </c>
@@ -7194,7 +7546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:2">
       <c r="A524" s="3">
         <v>45086</v>
       </c>
@@ -7202,7 +7554,7 @@
         <v>19.59</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:2">
       <c r="A525" s="3">
         <v>45089</v>
       </c>
@@ -7210,7 +7562,7 @@
         <v>20.82</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:2">
       <c r="A526" s="3">
         <v>45090</v>
       </c>
@@ -7218,7 +7570,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:2">
       <c r="A527" s="3">
         <v>45091</v>
       </c>
@@ -7226,7 +7578,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:2">
       <c r="A528" s="3">
         <v>45092</v>
       </c>
@@ -7234,7 +7586,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:2">
       <c r="A529" s="3">
         <v>45093</v>
       </c>
@@ -7242,7 +7594,7 @@
         <v>19.41</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:2">
       <c r="A530" s="3">
         <v>45096</v>
       </c>
@@ -7250,7 +7602,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:2">
       <c r="A531" s="3">
         <v>45097</v>
       </c>
@@ -7258,7 +7610,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:2">
       <c r="A532" s="3">
         <v>45098</v>
       </c>
@@ -7266,7 +7618,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:2">
       <c r="A533" s="3">
         <v>45099</v>
       </c>
@@ -7274,7 +7626,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:2">
       <c r="A534" s="3">
         <v>45100</v>
       </c>
@@ -7282,7 +7634,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:2">
       <c r="A535" s="3">
         <v>45103</v>
       </c>
@@ -7290,7 +7642,7 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:2">
       <c r="A536" s="3">
         <v>45104</v>
       </c>
@@ -7298,7 +7650,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:2">
       <c r="A537" s="3">
         <v>45105</v>
       </c>
@@ -7306,7 +7658,7 @@
         <v>21.15</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:2">
       <c r="A538" s="3">
         <v>45106</v>
       </c>
@@ -7314,7 +7666,7 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:2">
       <c r="A539" s="3">
         <v>45107</v>
       </c>
@@ -7322,7 +7674,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:2">
       <c r="A540" s="3">
         <v>45110</v>
       </c>
@@ -7330,7 +7682,7 @@
         <v>20.83</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:2">
       <c r="A541" s="3">
         <v>45111</v>
       </c>
@@ -7338,7 +7690,7 @@
         <v>20.36</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:2">
       <c r="A542" s="3">
         <v>45112</v>
       </c>
@@ -7346,7 +7698,7 @@
         <v>20.36</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:2">
       <c r="A543" s="3">
         <v>45113</v>
       </c>
@@ -7354,7 +7706,7 @@
         <v>22.82</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:2">
       <c r="A544" s="3">
         <v>45114</v>
       </c>
@@ -7362,7 +7714,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:2">
       <c r="A545" s="3">
         <v>45117</v>
       </c>
@@ -7370,7 +7722,7 @@
         <v>21.48</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:2">
       <c r="A546" s="3">
         <v>45118</v>
       </c>
@@ -7378,7 +7730,7 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:2">
       <c r="A547" s="3">
         <v>45119</v>
       </c>
@@ -7386,7 +7738,7 @@
         <v>19.79</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:2">
       <c r="A548" s="3">
         <v>45120</v>
       </c>
@@ -7394,7 +7746,7 @@
         <v>19.18</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:2">
       <c r="A549" s="3">
         <v>45121</v>
       </c>
@@ -7402,7 +7754,7 @@
         <v>19.66</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:2">
       <c r="A550" s="3">
         <v>45124</v>
       </c>
@@ -7410,7 +7762,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:2">
       <c r="A551" s="3">
         <v>45125</v>
       </c>
@@ -7418,7 +7770,7 @@
         <v>19.559999999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:2">
       <c r="A552" s="3">
         <v>45126</v>
       </c>
@@ -7426,7 +7778,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:2">
       <c r="A553" s="3">
         <v>45127</v>
       </c>
@@ -7434,7 +7786,7 @@
         <v>19.27</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:2">
       <c r="A554" s="3">
         <v>45128</v>
       </c>
@@ -7442,7 +7794,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:2">
       <c r="A555" s="3">
         <v>45131</v>
       </c>
@@ -7450,7 +7802,7 @@
         <v>18.52</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:2">
       <c r="A556" s="3">
         <v>45132</v>
       </c>
@@ -7458,7 +7810,7 @@
         <v>18.420000000000002</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:2">
       <c r="A557" s="3">
         <v>45133</v>
       </c>
@@ -7466,7 +7818,7 @@
         <v>18.68</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:2">
       <c r="A558" s="3">
         <v>45134</v>
       </c>
@@ -7474,7 +7826,7 @@
         <v>19.57</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:2">
       <c r="A559" s="3">
         <v>45135</v>
       </c>
@@ -7482,7 +7834,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:2">
       <c r="A560" s="3">
         <v>45138</v>
       </c>
@@ -7490,7 +7842,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:2">
       <c r="A561" s="3">
         <v>45139</v>
       </c>
@@ -7498,7 +7850,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:2">
       <c r="A562" s="3">
         <v>45140</v>
       </c>
@@ -7506,7 +7858,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:2">
       <c r="A563" s="3">
         <v>45141</v>
       </c>
@@ -7514,7 +7866,7 @@
         <v>20.21</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:2">
       <c r="A564" s="3">
         <v>45142</v>
       </c>
@@ -7522,7 +7874,7 @@
         <v>20.14</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:2">
       <c r="A565" s="3">
         <v>45145</v>
       </c>
@@ -7530,7 +7882,7 @@
         <v>20.34</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:2">
       <c r="A566" s="3">
         <v>45146</v>
       </c>
@@ -7538,7 +7890,7 @@
         <v>20.34</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:2">
       <c r="A567" s="3">
         <v>45147</v>
       </c>
@@ -7546,7 +7898,7 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:2">
       <c r="A568" s="3">
         <v>45148</v>
       </c>
@@ -7554,7 +7906,7 @@
         <v>18.989999999999998</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:2">
       <c r="A569" s="3">
         <v>45149</v>
       </c>
@@ -7562,7 +7914,7 @@
         <v>18.98</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:2">
       <c r="A570" s="3">
         <v>45152</v>
       </c>
@@ -7570,7 +7922,7 @@
         <v>18.98</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:2">
       <c r="A571" s="3">
         <v>45153</v>
       </c>
@@ -7578,7 +7930,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:2">
       <c r="A572" s="3">
         <v>45154</v>
       </c>
@@ -7586,7 +7938,7 @@
         <v>19.420000000000002</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:2">
       <c r="A573" s="3">
         <v>45155</v>
       </c>
@@ -7594,7 +7946,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:2">
       <c r="A574" s="3">
         <v>45156</v>
       </c>
@@ -7602,7 +7954,7 @@
         <v>19.18</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:2">
       <c r="A575" s="3">
         <v>45159</v>
       </c>
@@ -7610,7 +7962,7 @@
         <v>19.54</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:2">
       <c r="A576" s="3">
         <v>45160</v>
       </c>
@@ -7618,7 +7970,7 @@
         <v>19.14</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:2">
       <c r="A577" s="3">
         <v>45161</v>
       </c>
@@ -7626,7 +7978,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:2">
       <c r="A578" s="3">
         <v>45162</v>
       </c>
@@ -7634,7 +7986,7 @@
         <v>18.16</v>
       </c>
     </row>
-    <row r="579" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:2">
       <c r="A579" s="3">
         <v>45163</v>
       </c>
@@ -7642,7 +7994,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:2">
       <c r="A580" s="3">
         <v>45166</v>
       </c>
@@ -7650,7 +8002,7 @@
         <v>18.68</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:2">
       <c r="A581" s="3">
         <v>45167</v>
       </c>
@@ -7658,7 +8010,7 @@
         <v>18.46</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:2">
       <c r="A582" s="3">
         <v>45168</v>
       </c>
@@ -7666,7 +8018,7 @@
         <v>18.28</v>
       </c>
     </row>
-    <row r="583" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:2">
       <c r="A583" s="3">
         <v>45169</v>
       </c>
@@ -7674,7 +8026,7 @@
         <v>18.87</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:2">
       <c r="A584" s="3">
         <v>45170</v>
       </c>
@@ -7682,7 +8034,7 @@
         <v>18.47</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:2">
       <c r="A585" s="3">
         <v>45173</v>
       </c>
@@ -7690,7 +8042,7 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="586" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:2">
       <c r="A586" s="3">
         <v>45174</v>
       </c>
@@ -7698,7 +8050,7 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:2">
       <c r="A587" s="3">
         <v>45175</v>
       </c>
@@ -7706,7 +8058,7 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:2">
       <c r="A588" s="3">
         <v>45177</v>
       </c>
@@ -7714,7 +8066,7 @@
         <v>19.57</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:2">
       <c r="A589" s="3">
         <v>45180</v>
       </c>
@@ -7722,7 +8074,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:2">
       <c r="A590" s="3">
         <v>45181</v>
       </c>
@@ -7730,7 +8082,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:2">
       <c r="A591" s="3">
         <v>45182</v>
       </c>
@@ -7738,7 +8090,7 @@
         <v>18.61</v>
       </c>
     </row>
-    <row r="592" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:2">
       <c r="A592" s="3">
         <v>45183</v>
       </c>
@@ -7746,7 +8098,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:2">
       <c r="A593" s="3">
         <v>45184</v>
       </c>
@@ -7754,7 +8106,7 @@
         <v>18.190000000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:2">
       <c r="A594" s="3">
         <v>45187</v>
       </c>
@@ -7762,7 +8114,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:2">
       <c r="A595" s="3">
         <v>45188</v>
       </c>
@@ -7770,7 +8122,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:2">
       <c r="A596" s="3">
         <v>45189</v>
       </c>
@@ -7778,7 +8130,7 @@
         <v>17.670000000000002</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:2">
       <c r="A597" s="3">
         <v>45190</v>
       </c>
@@ -7786,7 +8138,7 @@
         <v>18.350000000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:2">
       <c r="A598" s="3">
         <v>45191</v>
       </c>
@@ -7794,7 +8146,7 @@
         <v>18.670000000000002</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:2">
       <c r="A599" s="3">
         <v>45194</v>
       </c>
@@ -7802,7 +8154,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:2">
       <c r="A600" s="3">
         <v>45195</v>
       </c>
@@ -7810,7 +8162,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:2">
       <c r="A601" s="3">
         <v>45196</v>
       </c>
@@ -7818,7 +8170,7 @@
         <v>19.73</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:2">
       <c r="A602" s="3">
         <v>45197</v>
       </c>
@@ -7826,7 +8178,7 @@
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:2">
       <c r="A603" s="3">
         <v>45198</v>
       </c>
@@ -7834,7 +8186,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:2">
       <c r="A604" s="3">
         <v>45201</v>
       </c>
@@ -7842,7 +8194,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="605" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:2">
       <c r="A605" s="3">
         <v>45202</v>
       </c>
@@ -7850,7 +8202,7 @@
         <v>19.579999999999998</v>
       </c>
     </row>
-    <row r="606" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:2">
       <c r="A606" s="3">
         <v>45203</v>
       </c>
@@ -7858,7 +8210,7 @@
         <v>19.71</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:2">
       <c r="A607" s="3">
         <v>45204</v>
       </c>
@@ -7866,7 +8218,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:2">
       <c r="A608" s="3">
         <v>45205</v>
       </c>
@@ -7874,7 +8226,7 @@
         <v>19.670000000000002</v>
       </c>
     </row>
-    <row r="609" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:2">
       <c r="A609" s="3">
         <v>45208</v>
       </c>
@@ -7882,7 +8234,7 @@
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="610" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:2">
       <c r="A610" s="3">
         <v>45209</v>
       </c>
@@ -7890,7 +8242,7 @@
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="611" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:2">
       <c r="A611" s="3">
         <v>45210</v>
       </c>
@@ -7898,7 +8250,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="612" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:2">
       <c r="A612" s="3">
         <v>45212</v>
       </c>
@@ -7906,7 +8258,7 @@
         <v>18.82</v>
       </c>
     </row>
-    <row r="613" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:2">
       <c r="A613" s="3">
         <v>45215</v>
       </c>
@@ -7914,7 +8266,7 @@
         <v>19.510000000000002</v>
       </c>
     </row>
-    <row r="614" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:2">
       <c r="A614" s="3">
         <v>45216</v>
       </c>
@@ -7922,7 +8274,7 @@
         <v>19.59</v>
       </c>
     </row>
-    <row r="615" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:2">
       <c r="A615" s="3">
         <v>45217</v>
       </c>
@@ -7930,7 +8282,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="616" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:2">
       <c r="A616" s="3">
         <v>45218</v>
       </c>
@@ -7938,7 +8290,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="617" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:2">
       <c r="A617" s="3">
         <v>45219</v>
       </c>
@@ -7946,7 +8298,7 @@
         <v>20.91</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:2">
       <c r="A618" s="3">
         <v>45222</v>
       </c>
@@ -7954,7 +8306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:2">
       <c r="A619" s="3">
         <v>45223</v>
       </c>
@@ -7962,7 +8314,7 @@
         <v>20.329999999999998</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:2">
       <c r="A620" s="3">
         <v>45224</v>
       </c>
@@ -7970,7 +8322,7 @@
         <v>20.82</v>
       </c>
     </row>
-    <row r="621" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:2">
       <c r="A621" s="3">
         <v>45225</v>
       </c>
@@ -7978,7 +8330,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="622" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:2">
       <c r="A622" s="3">
         <v>45226</v>
       </c>
@@ -7986,7 +8338,7 @@
         <v>20.12</v>
       </c>
     </row>
-    <row r="623" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:2">
       <c r="A623" s="3">
         <v>45229</v>
       </c>
@@ -7994,7 +8346,7 @@
         <v>22.19</v>
       </c>
     </row>
-    <row r="624" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:2">
       <c r="A624" s="3">
         <v>45230</v>
       </c>
@@ -8002,7 +8354,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="625" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:2">
       <c r="A625" s="3">
         <v>45231</v>
       </c>
@@ -8010,7 +8362,7 @@
         <v>19.88</v>
       </c>
     </row>
-    <row r="626" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:2">
       <c r="A626" s="3">
         <v>45233</v>
       </c>
@@ -8018,7 +8370,7 @@
         <v>18.98</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:2">
       <c r="A627" s="3">
         <v>45236</v>
       </c>
@@ -8026,7 +8378,7 @@
         <v>18.77</v>
       </c>
     </row>
-    <row r="628" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:2">
       <c r="A628" s="3">
         <v>45237</v>
       </c>
@@ -8034,7 +8386,7 @@
         <v>18.420000000000002</v>
       </c>
     </row>
-    <row r="629" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:2">
       <c r="A629" s="3">
         <v>45238</v>
       </c>
@@ -8042,7 +8394,7 @@
         <v>18.420000000000002</v>
       </c>
     </row>
-    <row r="630" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:2">
       <c r="A630" s="3">
         <v>45239</v>
       </c>
@@ -8050,7 +8402,7 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="631" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:2">
       <c r="A631" s="3">
         <v>45240</v>
       </c>
@@ -8058,7 +8410,7 @@
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:2">
       <c r="A632" s="3">
         <v>45243</v>
       </c>
@@ -8066,7 +8418,7 @@
         <v>18.79</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:2">
       <c r="A633" s="3">
         <v>45244</v>
       </c>
@@ -8074,7 +8426,7 @@
         <v>18.79</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:2">
       <c r="A634" s="3">
         <v>45246</v>
       </c>
@@ -8082,7 +8434,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="635" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:2">
       <c r="A635" s="3">
         <v>45247</v>
       </c>
@@ -8090,7 +8442,7 @@
         <v>17.510000000000002</v>
       </c>
     </row>
-    <row r="636" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:2">
       <c r="A636" s="3">
         <v>45250</v>
       </c>
@@ -8098,7 +8450,7 @@
         <v>17.670000000000002</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:2">
       <c r="A637" s="3">
         <v>45251</v>
       </c>
@@ -8106,7 +8458,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:2">
       <c r="A638" s="3">
         <v>45252</v>
       </c>
@@ -8114,7 +8466,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="639" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:2">
       <c r="A639" s="3">
         <v>45253</v>
       </c>
@@ -8122,7 +8474,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:2">
       <c r="A640" s="3">
         <v>45254</v>
       </c>
@@ -8130,7 +8482,7 @@
         <v>17.91</v>
       </c>
     </row>
-    <row r="641" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:2">
       <c r="A641" s="3">
         <v>45257</v>
       </c>
@@ -8138,7 +8490,7 @@
         <v>18.059999999999999</v>
       </c>
     </row>
-    <row r="642" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:2">
       <c r="A642" s="3">
         <v>45258</v>
       </c>
@@ -8146,7 +8498,7 @@
         <v>17.21</v>
       </c>
     </row>
-    <row r="643" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:2">
       <c r="A643" s="3">
         <v>45259</v>
       </c>
@@ -8154,7 +8506,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:2">
       <c r="A644" s="3">
         <v>45260</v>
       </c>
@@ -8162,7 +8514,7 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:2">
       <c r="A645" s="3">
         <v>45261</v>
       </c>
@@ -8170,7 +8522,7 @@
         <v>17.36</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:2">
       <c r="A646" s="3">
         <v>45264</v>
       </c>
@@ -8178,7 +8530,7 @@
         <v>17.920000000000002</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:2">
       <c r="A647" s="3">
         <v>45265</v>
       </c>
@@ -8186,7 +8538,7 @@
         <v>17.649999999999999</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:2">
       <c r="A648" s="3">
         <v>45266</v>
       </c>
@@ -8194,7 +8546,7 @@
         <v>18.52</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:2">
       <c r="A649" s="3">
         <v>45267</v>
       </c>
@@ -8202,7 +8554,7 @@
         <v>15.85</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:2">
       <c r="A650" s="3">
         <v>45268</v>
       </c>
@@ -8210,7 +8562,7 @@
         <v>17.690000000000001</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:2">
       <c r="A651" s="3">
         <v>45271</v>
       </c>
@@ -8218,7 +8570,7 @@
         <v>17.97</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:2">
       <c r="A652" s="3">
         <v>45272</v>
       </c>
@@ -8226,7 +8578,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="653" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:2">
       <c r="A653" s="3">
         <v>45273</v>
       </c>
@@ -8234,7 +8586,7 @@
         <v>16.489999999999998</v>
       </c>
     </row>
-    <row r="654" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:2">
       <c r="A654" s="3">
         <v>45274</v>
       </c>
@@ -8242,7 +8594,7 @@
         <v>15.91</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:2">
       <c r="A655" s="3">
         <v>45275</v>
       </c>
@@ -8250,7 +8602,7 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="656" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:2">
       <c r="A656" s="3">
         <v>45278</v>
       </c>
@@ -8258,7 +8610,7 @@
         <v>14.89</v>
       </c>
     </row>
-    <row r="657" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:2">
       <c r="A657" s="3">
         <v>45279</v>
       </c>
@@ -8266,7 +8618,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:2">
       <c r="A658" s="3">
         <v>45280</v>
       </c>
@@ -8274,7 +8626,7 @@
         <v>14.89</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:2">
       <c r="A659" s="3">
         <v>45281</v>
       </c>
@@ -8282,7 +8634,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:2">
       <c r="A660" s="3">
         <v>45282</v>
       </c>
@@ -8290,7 +8642,7 @@
         <v>14.93</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:2">
       <c r="A661" s="3">
         <v>45286</v>
       </c>
@@ -8298,7 +8650,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="662" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:2">
       <c r="A662" s="3">
         <v>45287</v>
       </c>
@@ -8306,7 +8658,7 @@
         <v>16.170000000000002</v>
       </c>
     </row>
-    <row r="663" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:2">
       <c r="A663" s="3">
         <v>45288</v>
       </c>
@@ -8314,7 +8666,7 @@
         <v>16.329999999999998</v>
       </c>
     </row>
-    <row r="664" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:2">
       <c r="A664" s="3">
         <v>45293</v>
       </c>
@@ -8322,7 +8674,7 @@
         <v>16.329999999999998</v>
       </c>
     </row>
-    <row r="665" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:2">
       <c r="A665" s="3">
         <v>45294</v>
       </c>
@@ -8330,7 +8682,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="666" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:2">
       <c r="A666" s="3">
         <v>45295</v>
       </c>
@@ -8338,7 +8690,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="667" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:2">
       <c r="A667" s="3">
         <v>45296</v>
       </c>
@@ -8346,7 +8698,7 @@
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="668" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:2">
       <c r="A668" s="3">
         <v>45299</v>
       </c>
@@ -8354,7 +8706,7 @@
         <v>17.18</v>
       </c>
     </row>
-    <row r="669" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:2">
       <c r="A669" s="3">
         <v>45300</v>
       </c>
@@ -8362,7 +8714,7 @@
         <v>16.739999999999998</v>
       </c>
     </row>
-    <row r="670" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:2">
       <c r="A670" s="3">
         <v>45301</v>
       </c>
@@ -8370,7 +8722,7 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="671" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:2">
       <c r="A671" s="3">
         <v>45302</v>
       </c>
@@ -8378,7 +8730,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="672" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:2">
       <c r="A672" s="3">
         <v>45303</v>
       </c>
@@ -8386,7 +8738,7 @@
         <v>16.32</v>
       </c>
     </row>
-    <row r="673" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:2">
       <c r="A673" s="3">
         <v>45306</v>
       </c>
@@ -8394,7 +8746,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:2">
       <c r="A674" s="3">
         <v>45307</v>
       </c>
@@ -8402,7 +8754,7 @@
         <v>17.190000000000001</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:2">
       <c r="A675" s="3">
         <v>45308</v>
       </c>
@@ -8410,7 +8762,7 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:2">
       <c r="A676" s="3">
         <v>45309</v>
       </c>
@@ -8418,7 +8770,7 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="677" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:2">
       <c r="A677" s="3">
         <v>45310</v>
       </c>
@@ -8426,7 +8778,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="678" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:2">
       <c r="A678" s="3">
         <v>45313</v>
       </c>
@@ -8434,7 +8786,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="679" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:2">
       <c r="A679" s="3">
         <v>45314</v>
       </c>
@@ -8442,7 +8794,7 @@
         <v>16.22</v>
       </c>
     </row>
-    <row r="680" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:2">
       <c r="A680" s="3">
         <v>45315</v>
       </c>
@@ -8450,7 +8802,7 @@
         <v>16.78</v>
       </c>
     </row>
-    <row r="681" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:2">
       <c r="A681" s="3">
         <v>45316</v>
       </c>
@@ -8458,7 +8810,7 @@
         <v>16.41</v>
       </c>
     </row>
-    <row r="682" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:2">
       <c r="A682" s="3">
         <v>45317</v>
       </c>
@@ -8466,7 +8818,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="683" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:2">
       <c r="A683" s="3">
         <v>45320</v>
       </c>
@@ -8474,7 +8826,7 @@
         <v>16.920000000000002</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:2">
       <c r="A684" s="3">
         <v>45321</v>
       </c>
@@ -8482,7 +8834,7 @@
         <v>17.190000000000001</v>
       </c>
     </row>
-    <row r="685" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:2">
       <c r="A685" s="3">
         <v>45322</v>
       </c>
@@ -8490,7 +8842,7 @@
         <v>17.239999999999998</v>
       </c>
     </row>
-    <row r="686" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:2">
       <c r="A686" s="3">
         <v>45323</v>
       </c>
@@ -8498,7 +8850,7 @@
         <v>17.170000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:2">
       <c r="A687" s="3">
         <v>45324</v>
       </c>
@@ -8506,7 +8858,7 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="688" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:2">
       <c r="A688" s="3">
         <v>45327</v>
       </c>
@@ -8514,7 +8866,7 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="689" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:2">
       <c r="A689" s="3">
         <v>45328</v>
       </c>
@@ -8522,7 +8874,7 @@
         <v>17.37</v>
       </c>
     </row>
-    <row r="690" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:2">
       <c r="A690" s="3">
         <v>45329</v>
       </c>
@@ -8530,7 +8882,7 @@
         <v>16.690000000000001</v>
       </c>
     </row>
-    <row r="691" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:2">
       <c r="A691" s="3">
         <v>45330</v>
       </c>
@@ -8538,7 +8890,7 @@
         <v>17.87</v>
       </c>
     </row>
-    <row r="692" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:2">
       <c r="A692" s="3">
         <v>45331</v>
       </c>
@@ -8546,7 +8898,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="693" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:2">
       <c r="A693" s="3">
         <v>45336</v>
       </c>
@@ -8554,7 +8906,7 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="694" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:2">
       <c r="A694" s="3">
         <v>45337</v>
       </c>
@@ -8562,7 +8914,7 @@
         <v>15.91</v>
       </c>
     </row>
-    <row r="695" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:2">
       <c r="A695" s="3">
         <v>45338</v>
       </c>
@@ -8570,7 +8922,7 @@
         <v>15.59</v>
       </c>
     </row>
-    <row r="696" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:2">
       <c r="A696" s="3">
         <v>45341</v>
       </c>
@@ -8578,7 +8930,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="697" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:2">
       <c r="A697" s="3">
         <v>45342</v>
       </c>
@@ -8586,7 +8938,7 @@
         <v>15.81</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:2">
       <c r="A698" s="3">
         <v>45343</v>
       </c>
@@ -8594,7 +8946,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="699" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:2">
       <c r="A699" s="3">
         <v>45344</v>
       </c>
@@ -8602,7 +8954,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="700" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:2">
       <c r="A700" s="3">
         <v>45345</v>
       </c>
@@ -8610,7 +8962,7 @@
         <v>15.74</v>
       </c>
     </row>
-    <row r="701" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:2">
       <c r="A701" s="3">
         <v>45348</v>
       </c>
@@ -8618,7 +8970,7 @@
         <v>15.79</v>
       </c>
     </row>
-    <row r="702" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:2">
       <c r="A702" s="3">
         <v>45349</v>
       </c>
@@ -8626,7 +8978,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="703" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:2">
       <c r="A703" s="3">
         <v>45350</v>
       </c>
@@ -8634,7 +8986,7 @@
         <v>16.07</v>
       </c>
     </row>
-    <row r="704" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:2">
       <c r="A704" s="3">
         <v>45351</v>
       </c>
@@ -8642,7 +8994,7 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="705" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:2">
       <c r="A705" s="3">
         <v>45352</v>
       </c>
@@ -8650,7 +9002,7 @@
         <v>16.309999999999999</v>
       </c>
     </row>
-    <row r="706" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:2">
       <c r="A706" s="3">
         <v>45355</v>
       </c>
@@ -8658,7 +9010,7 @@
         <v>16.64</v>
       </c>
     </row>
-    <row r="707" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:2">
       <c r="A707" s="3">
         <v>45356</v>
       </c>
@@ -8666,7 +9018,7 @@
         <v>16.760000000000002</v>
       </c>
     </row>
-    <row r="708" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:2">
       <c r="A708" s="3">
         <v>45357</v>
       </c>
@@ -8674,7 +9026,7 @@
         <v>16.760000000000002</v>
       </c>
     </row>
-    <row r="709" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:2">
       <c r="A709" s="3">
         <v>45358</v>
       </c>
@@ -8682,7 +9034,7 @@
         <v>17.329999999999998</v>
       </c>
     </row>
-    <row r="710" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:2">
       <c r="A710" s="3">
         <v>45359</v>
       </c>
@@ -8690,7 +9042,7 @@
         <v>18.36</v>
       </c>
     </row>
-    <row r="711" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:2">
       <c r="A711" s="3">
         <v>45362</v>
       </c>
@@ -8698,7 +9050,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="712" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:2">
       <c r="A712" s="3">
         <v>45363</v>
       </c>
@@ -8706,7 +9058,7 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="713" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:2">
       <c r="A713" s="3">
         <v>45364</v>
       </c>
@@ -8714,7 +9066,7 @@
         <v>15.71</v>
       </c>
     </row>
-    <row r="714" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:2">
       <c r="A714" s="3">
         <v>45365</v>
       </c>
@@ -8722,7 +9074,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="715" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:2">
       <c r="A715" s="3">
         <v>45366</v>
       </c>
@@ -8730,7 +9082,7 @@
         <v>15.49</v>
       </c>
     </row>
-    <row r="716" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:2">
       <c r="A716" s="3">
         <v>45369</v>
       </c>
@@ -8738,7 +9090,7 @@
         <v>16.22</v>
       </c>
     </row>
-    <row r="717" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:2">
       <c r="A717" s="3">
         <v>45370</v>
       </c>
@@ -8746,7 +9098,7 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="718" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:2">
       <c r="A718" s="3">
         <v>45371</v>
       </c>
@@ -8754,7 +9106,7 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="719" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:2">
       <c r="A719" s="3">
         <v>45372</v>
       </c>
@@ -8762,7 +9114,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="720" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:2">
       <c r="A720" s="3">
         <v>45373</v>
       </c>
@@ -8770,7 +9122,7 @@
         <v>15.81</v>
       </c>
     </row>
-    <row r="721" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:2">
       <c r="A721" s="3">
         <v>45376</v>
       </c>
@@ -8778,7 +9130,7 @@
         <v>15.83</v>
       </c>
     </row>
-    <row r="722" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:2">
       <c r="A722" s="3">
         <v>45377</v>
       </c>
@@ -8786,7 +9138,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="723" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:2">
       <c r="A723" s="3">
         <v>45378</v>
       </c>
@@ -8794,7 +9146,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="724" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:2">
       <c r="A724" s="3">
         <v>45379</v>
       </c>
@@ -8802,7 +9154,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="725" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:2">
       <c r="A725" s="3">
         <v>45383</v>
       </c>
@@ -8810,7 +9162,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="726" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:2">
       <c r="A726" s="3">
         <v>45384</v>
       </c>
@@ -8818,7 +9170,7 @@
         <v>15.26</v>
       </c>
     </row>
-    <row r="727" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:2">
       <c r="A727" s="3">
         <v>45385</v>
       </c>
@@ -8826,7 +9178,7 @@
         <v>15.68</v>
       </c>
     </row>
-    <row r="728" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:2">
       <c r="A728" s="3">
         <v>45386</v>
       </c>
@@ -8834,7 +9186,7 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="729" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:2">
       <c r="A729" s="3">
         <v>45387</v>
       </c>
@@ -8842,7 +9194,7 @@
         <v>16.53</v>
       </c>
     </row>
-    <row r="730" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:2">
       <c r="A730" s="3">
         <v>45390</v>
       </c>
@@ -8850,7 +9202,7 @@
         <v>16.82</v>
       </c>
     </row>
-    <row r="731" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:2">
       <c r="A731" s="3">
         <v>45391</v>
       </c>
@@ -8858,7 +9210,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="732" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:2">
       <c r="A732" s="3">
         <v>45392</v>
       </c>
@@ -8866,7 +9218,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="733" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:2">
       <c r="A733" s="3">
         <v>45393</v>
       </c>
@@ -8874,7 +9226,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="734" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:2">
       <c r="A734" s="3">
         <v>45394</v>
       </c>
@@ -8882,7 +9234,7 @@
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="735" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:2">
       <c r="A735" s="3">
         <v>45397</v>
       </c>
@@ -8890,7 +9242,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="736" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:2">
       <c r="A736" s="3">
         <v>45398</v>
       </c>
@@ -8898,7 +9250,7 @@
         <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="737" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:2">
       <c r="A737" s="3">
         <v>45399</v>
       </c>
@@ -8906,7 +9258,7 @@
         <v>18.63</v>
       </c>
     </row>
-    <row r="738" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:2">
       <c r="A738" s="3">
         <v>45400</v>
       </c>
@@ -8914,7 +9266,7 @@
         <v>18.11</v>
       </c>
     </row>
-    <row r="739" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:2">
       <c r="A739" s="3">
         <v>45401</v>
       </c>
@@ -8922,7 +9274,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="740" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:2">
       <c r="A740" s="3">
         <v>45404</v>
       </c>
@@ -8930,7 +9282,7 @@
         <v>17.68</v>
       </c>
     </row>
-    <row r="741" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:2">
       <c r="A741" s="3">
         <v>45405</v>
       </c>
@@ -8938,7 +9290,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="742" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:2">
       <c r="A742" s="3">
         <v>45406</v>
       </c>
@@ -8946,7 +9298,7 @@
         <v>16.82</v>
       </c>
     </row>
-    <row r="743" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:2">
       <c r="A743" s="3">
         <v>45407</v>
       </c>
@@ -8954,7 +9306,7 @@
         <v>16.850000000000001</v>
       </c>
     </row>
-    <row r="744" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:2">
       <c r="A744" s="3">
         <v>45408</v>
       </c>
@@ -8962,7 +9314,7 @@
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="745" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:2">
       <c r="A745" s="3">
         <v>45411</v>
       </c>
@@ -8970,7 +9322,7 @@
         <v>16.39</v>
       </c>
     </row>
-    <row r="746" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:2">
       <c r="A746" s="3">
         <v>45412</v>
       </c>
@@ -8978,7 +9330,7 @@
         <v>16.87</v>
       </c>
     </row>
-    <row r="747" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:2">
       <c r="A747" s="3">
         <v>45414</v>
       </c>
@@ -8986,7 +9338,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="748" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:2">
       <c r="A748" s="3">
         <v>45415</v>
       </c>
@@ -8994,7 +9346,7 @@
         <v>16.64</v>
       </c>
     </row>
-    <row r="749" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:2">
       <c r="A749" s="3">
         <v>45418</v>
       </c>
@@ -9002,7 +9354,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="750" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:2">
       <c r="A750" s="3">
         <v>45419</v>
       </c>
@@ -9010,7 +9362,7 @@
         <v>16.22</v>
       </c>
     </row>
-    <row r="751" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:2">
       <c r="A751" s="3">
         <v>45420</v>
       </c>
@@ -9018,7 +9370,7 @@
         <v>16.22</v>
       </c>
     </row>
-    <row r="752" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:2">
       <c r="A752" s="3">
         <v>45421</v>
       </c>
@@ -9026,7 +9378,7 @@
         <v>15.46</v>
       </c>
     </row>
-    <row r="753" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:2">
       <c r="A753" s="3">
         <v>45422</v>
       </c>
@@ -9034,7 +9386,7 @@
         <v>15.39</v>
       </c>
     </row>
-    <row r="754" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:2">
       <c r="A754" s="3">
         <v>45425</v>
       </c>
@@ -9042,7 +9394,7 @@
         <v>15.39</v>
       </c>
     </row>
-    <row r="755" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:2">
       <c r="A755" s="3">
         <v>45426</v>
       </c>
@@ -9050,7 +9402,7 @@
         <v>15.61</v>
       </c>
     </row>
-    <row r="756" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:2">
       <c r="A756" s="3">
         <v>45427</v>
       </c>
@@ -9058,7 +9410,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="757" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:2">
       <c r="A757" s="3">
         <v>45428</v>
       </c>
@@ -9066,7 +9418,7 @@
         <v>14.44</v>
       </c>
     </row>
-    <row r="758" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:2">
       <c r="A758" s="3">
         <v>45429</v>
       </c>
@@ -9074,7 +9426,7 @@
         <v>13.89</v>
       </c>
     </row>
-    <row r="759" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:2">
       <c r="A759" s="3">
         <v>45432</v>
       </c>
@@ -9082,7 +9434,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="760" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:2">
       <c r="A760" s="3">
         <v>45433</v>
       </c>
@@ -9090,7 +9442,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="761" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:2">
       <c r="A761" s="3">
         <v>45434</v>
       </c>
@@ -9098,7 +9450,7 @@
         <v>14.81</v>
       </c>
     </row>
-    <row r="762" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:2">
       <c r="A762" s="3">
         <v>45435</v>
       </c>
@@ -9106,7 +9458,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="763" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:2">
       <c r="A763" s="3">
         <v>45436</v>
       </c>
@@ -9114,7 +9466,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="764" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:2">
       <c r="A764" s="3">
         <v>45439</v>
       </c>
@@ -9122,7 +9474,7 @@
         <v>15.21</v>
       </c>
     </row>
-    <row r="765" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:2">
       <c r="A765" s="3">
         <v>45440</v>
       </c>
@@ -9130,7 +9482,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="766" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:2">
       <c r="A766" s="3">
         <v>45441</v>
       </c>
@@ -9138,7 +9490,7 @@
         <v>16.78</v>
       </c>
     </row>
-    <row r="767" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:2">
       <c r="A767" s="3">
         <v>45443</v>
       </c>
@@ -9146,7 +9498,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="768" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:2">
       <c r="A768" s="3">
         <v>45446</v>
       </c>
@@ -9154,7 +9506,7 @@
         <v>16.54</v>
       </c>
     </row>
-    <row r="769" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:2">
       <c r="A769" s="3">
         <v>45447</v>
       </c>
@@ -9162,7 +9514,7 @@
         <v>16.579999999999998</v>
       </c>
     </row>
-    <row r="770" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:2">
       <c r="A770" s="3">
         <v>45448</v>
       </c>
@@ -9170,7 +9522,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="771" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:2">
       <c r="A771" s="3">
         <v>45449</v>
       </c>
@@ -9178,7 +9530,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="772" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:2">
       <c r="A772" s="3">
         <v>45450</v>
       </c>
@@ -9186,7 +9538,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="773" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:2">
       <c r="A773" s="3">
         <v>45453</v>
       </c>
@@ -9194,7 +9546,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="774" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:2">
       <c r="A774" s="3">
         <v>45454</v>
       </c>
@@ -9202,7 +9554,7 @@
         <v>18.059999999999999</v>
       </c>
     </row>
-    <row r="775" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:2">
       <c r="A775" s="3">
         <v>45455</v>
       </c>
@@ -9210,7 +9562,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="776" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:2">
       <c r="A776" s="3">
         <v>45456</v>
       </c>
@@ -9218,7 +9570,7 @@
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="777" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:2">
       <c r="A777" s="3">
         <v>45457</v>
       </c>
@@ -9226,7 +9578,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="778" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:2">
       <c r="A778" s="3">
         <v>45460</v>
       </c>
@@ -9234,7 +9586,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="779" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:2">
       <c r="A779" s="3">
         <v>45461</v>
       </c>
@@ -9242,7 +9594,7 @@
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="780" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:2">
       <c r="A780" s="3">
         <v>45462</v>
       </c>
@@ -9250,7 +9602,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="781" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:2">
       <c r="A781" s="3">
         <v>45463</v>
       </c>
@@ -9258,7 +9610,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="782" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:2">
       <c r="A782" s="3">
         <v>45464</v>
       </c>
@@ -9266,7 +9618,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="783" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:2">
       <c r="A783" s="3">
         <v>45467</v>
       </c>
@@ -9274,7 +9626,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="784" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:2">
       <c r="A784" s="3">
         <v>45468</v>
       </c>
@@ -9282,7 +9634,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="785" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:2">
       <c r="A785" s="3">
         <v>45469</v>
       </c>
@@ -9290,7 +9642,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="786" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:2">
       <c r="A786" s="3">
         <v>45470</v>
       </c>
@@ -9298,7 +9650,7 @@
         <v>14.47</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:2">
       <c r="A787" s="3">
         <v>45471</v>
       </c>
@@ -9306,7 +9658,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:2">
       <c r="A788" s="3">
         <v>45474</v>
       </c>
@@ -9314,7 +9666,7 @@
         <v>15.23</v>
       </c>
     </row>
-    <row r="789" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:2">
       <c r="A789" s="3">
         <v>45475</v>
       </c>
@@ -9322,7 +9674,7 @@
         <v>15.16</v>
       </c>
     </row>
-    <row r="790" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:2">
       <c r="A790" s="3">
         <v>45476</v>
       </c>
@@ -9330,7 +9682,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="791" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:2">
       <c r="A791" s="3">
         <v>45477</v>
       </c>
@@ -9338,28 +9690,59 @@
         <v>14.47</v>
       </c>
     </row>
-    <row r="792" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:2">
       <c r="A792" s="3">
         <v>45478</v>
       </c>
       <c r="B792" s="1">
         <v>13.92</v>
       </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="3">
+        <v>45481</v>
+      </c>
+      <c r="B793" s="1">
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="3">
+        <v>45482</v>
+      </c>
+      <c r="B794" s="1">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B795" s="1">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="3">
+        <v>45484</v>
+      </c>
+      <c r="B796" s="1">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B797" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B449697E-CC9D-EA49-AAE7-390394E11B48}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>